--- a/BackTest/2019-10-26 BackTest MITH.xlsx
+++ b/BackTest/2019-10-26 BackTest MITH.xlsx
@@ -1081,17 +1081,13 @@
         <v>14.62</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
@@ -1120,22 +1116,14 @@
         <v>14.62</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K21" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1169,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1204,17 +1186,13 @@
         <v>14.62</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>14.6</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
@@ -1243,22 +1221,14 @@
         <v>14.6</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1286,22 +1256,14 @@
         <v>14.6</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K25" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1329,22 +1291,14 @@
         <v>14.62</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K26" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1372,22 +1326,14 @@
         <v>14.64</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="K27" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1415,22 +1361,14 @@
         <v>14.68</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K28" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1464,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1505,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1546,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1628,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1669,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1710,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1751,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1792,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1833,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1874,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1915,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1956,16 +1822,10 @@
         <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>1.022397260273973</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1994,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -2029,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -2064,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -2344,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2379,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -5526,14 +5386,20 @@
         <v>14.74</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>14.7</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5561,14 +5427,20 @@
         <v>14.8</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>14.9</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5596,14 +5468,20 @@
         <v>14.86</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>15</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5516,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5555,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +5594,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +5633,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +5672,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +5711,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +5750,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +5789,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +5828,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +5867,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +5906,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +5945,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +5984,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6023,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6062,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6101,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6140,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6179,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6218,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6257,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6296,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6335,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6374,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6413,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6452,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +6491,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +6530,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +6569,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +6608,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +6647,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +6686,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +6725,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +6764,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +6803,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +6842,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +6881,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +6920,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +6959,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +6998,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7037,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7076,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7115,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7154,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7193,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7232,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7271,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7310,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7349,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7388,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7427,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +7466,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7505,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +7544,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +7583,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +7622,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +7661,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +7700,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +7739,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +7778,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +7817,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +7856,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7773,7 +7895,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +7934,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +7973,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8012,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8051,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7948,7 +8090,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7983,7 +8129,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +8168,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8053,7 +8207,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8246,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8285,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8324,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8363,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8402,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8263,7 +8441,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +8480,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8333,7 +8519,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8368,7 +8558,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +8597,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8438,7 +8636,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +8675,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +8714,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8543,7 +8753,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8578,7 +8792,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +8831,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +8870,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8683,7 +8909,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8718,7 +8948,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8753,7 +8987,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +9026,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8823,7 +9065,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8858,7 +9104,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8893,7 +9143,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8928,7 +9182,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8963,7 +9221,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +9260,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9299,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9338,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9103,7 +9377,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +9416,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9173,7 +9455,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9208,7 +9494,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9243,7 +9533,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9271,14 +9565,20 @@
         <v>14.72</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9306,14 +9606,20 @@
         <v>14.72</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +9654,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +9693,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +9732,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +9771,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +9810,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9523,7 +9849,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9551,14 +9881,20 @@
         <v>14.56</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>14.5</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9586,14 +9922,20 @@
         <v>14.56</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +9970,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +10009,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9691,18 +10041,18 @@
         <v>14.52</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K262" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="L262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9730,20 +10080,16 @@
         <v>14.46</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K263" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M263" t="n">
@@ -9779,11 +10125,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K264" t="n">
-        <v>14.4</v>
-      </c>
+        <v>14.5</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9824,9 +10168,7 @@
       <c r="J265" t="n">
         <v>14.4</v>
       </c>
-      <c r="K265" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9867,9 +10209,7 @@
       <c r="J266" t="n">
         <v>14.4</v>
       </c>
-      <c r="K266" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9908,11 +10248,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K267" t="n">
         <v>14.4</v>
       </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9951,11 +10289,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K268" t="n">
-        <v>14.4</v>
-      </c>
+        <v>14.3</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest MITH.xlsx
+++ b/BackTest/2019-10-26 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M268"/>
+  <dimension ref="A1:M269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,13 +445,13 @@
         <v>14.8</v>
       </c>
       <c r="F2" t="n">
-        <v>5346.0135</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="n">
-        <v>14.8</v>
+        <v>14.69166666666669</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -480,19 +480,23 @@
         <v>14.8</v>
       </c>
       <c r="F3" t="n">
-        <v>32500</v>
+        <v>5346.0135</v>
       </c>
       <c r="G3" t="n">
-        <v>14.8</v>
+        <v>14.69500000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.8</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -515,20 +519,28 @@
         <v>14.8</v>
       </c>
       <c r="F4" t="n">
-        <v>2200</v>
+        <v>32500</v>
       </c>
       <c r="G4" t="n">
-        <v>14.8</v>
+        <v>14.69833333333336</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -550,10 +562,10 @@
         <v>14.8</v>
       </c>
       <c r="F5" t="n">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="G5" t="n">
-        <v>14.8</v>
+        <v>14.70166666666669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -562,8 +574,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,22 +591,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E6" t="n">
         <v>14.8</v>
       </c>
       <c r="F6" t="n">
-        <v>10320</v>
+        <v>1000</v>
       </c>
       <c r="G6" t="n">
-        <v>14.82</v>
+        <v>14.70500000000002</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +626,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="C7" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="D7" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="E7" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F7" t="n">
-        <v>182.2834</v>
+        <v>10320</v>
       </c>
       <c r="G7" t="n">
-        <v>14.8</v>
+        <v>14.70666666666669</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +673,10 @@
         <v>14.7</v>
       </c>
       <c r="F8" t="n">
-        <v>50000</v>
+        <v>182.2834</v>
       </c>
       <c r="G8" t="n">
-        <v>14.78</v>
+        <v>14.70500000000002</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +708,10 @@
         <v>14.7</v>
       </c>
       <c r="F9" t="n">
-        <v>37900</v>
+        <v>50000</v>
       </c>
       <c r="G9" t="n">
-        <v>14.76</v>
+        <v>14.70333333333336</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +743,10 @@
         <v>14.7</v>
       </c>
       <c r="F10" t="n">
-        <v>44300</v>
+        <v>37900</v>
       </c>
       <c r="G10" t="n">
-        <v>14.74</v>
+        <v>14.70000000000003</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C11" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D11" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E11" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F11" t="n">
-        <v>72920.85340000001</v>
+        <v>44300</v>
       </c>
       <c r="G11" t="n">
-        <v>14.72</v>
+        <v>14.69666666666669</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,7 +801,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C12" t="n">
         <v>14.8</v>
@@ -792,13 +810,13 @@
         <v>14.8</v>
       </c>
       <c r="E12" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="F12" t="n">
-        <v>1000</v>
+        <v>72920.85340000001</v>
       </c>
       <c r="G12" t="n">
-        <v>14.74</v>
+        <v>14.69333333333336</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +836,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C13" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D13" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E13" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F13" t="n">
-        <v>30000</v>
+        <v>1000</v>
       </c>
       <c r="G13" t="n">
-        <v>14.74</v>
+        <v>14.69333333333336</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +883,10 @@
         <v>14.7</v>
       </c>
       <c r="F14" t="n">
-        <v>93968.7527</v>
+        <v>30000</v>
       </c>
       <c r="G14" t="n">
-        <v>14.74</v>
+        <v>14.69000000000003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C15" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D15" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E15" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F15" t="n">
-        <v>52000</v>
+        <v>93968.7527</v>
       </c>
       <c r="G15" t="n">
-        <v>14.72</v>
+        <v>14.68500000000003</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +953,10 @@
         <v>14.6</v>
       </c>
       <c r="F16" t="n">
-        <v>111200</v>
+        <v>52000</v>
       </c>
       <c r="G16" t="n">
-        <v>14.68</v>
+        <v>14.68000000000003</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +988,10 @@
         <v>14.6</v>
       </c>
       <c r="F17" t="n">
-        <v>302762.622</v>
+        <v>111200</v>
       </c>
       <c r="G17" t="n">
-        <v>14.64</v>
+        <v>14.67333333333336</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1005,10 +1023,10 @@
         <v>14.6</v>
       </c>
       <c r="F18" t="n">
-        <v>6786</v>
+        <v>302762.622</v>
       </c>
       <c r="G18" t="n">
-        <v>14.62</v>
+        <v>14.6666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1058,10 @@
         <v>14.6</v>
       </c>
       <c r="F19" t="n">
-        <v>1760.282</v>
+        <v>6786</v>
       </c>
       <c r="G19" t="n">
-        <v>14.59999999999999</v>
+        <v>14.6616666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1081,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C20" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D20" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E20" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F20" t="n">
-        <v>12.8245</v>
+        <v>1760.282</v>
       </c>
       <c r="G20" t="n">
-        <v>14.62</v>
+        <v>14.6566666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1116,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C21" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D21" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="E21" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F21" t="n">
-        <v>98400</v>
+        <v>12.8245</v>
       </c>
       <c r="G21" t="n">
-        <v>14.62</v>
+        <v>14.65500000000003</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1163,10 @@
         <v>14.6</v>
       </c>
       <c r="F22" t="n">
-        <v>11900</v>
+        <v>98400</v>
       </c>
       <c r="G22" t="n">
-        <v>14.62</v>
+        <v>14.65333333333337</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1198,10 @@
         <v>14.6</v>
       </c>
       <c r="F23" t="n">
-        <v>196355.6785</v>
+        <v>11900</v>
       </c>
       <c r="G23" t="n">
-        <v>14.62</v>
+        <v>14.6516666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1224,19 @@
         <v>14.6</v>
       </c>
       <c r="C24" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D24" t="n">
         <v>14.6</v>
       </c>
       <c r="E24" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="F24" t="n">
-        <v>128905.462</v>
+        <v>196355.6785</v>
       </c>
       <c r="G24" t="n">
-        <v>14.6</v>
+        <v>14.65000000000003</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1256,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="C25" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D25" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E25" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="F25" t="n">
-        <v>41282.4228</v>
+        <v>128905.462</v>
       </c>
       <c r="G25" t="n">
-        <v>14.6</v>
+        <v>14.64833333333337</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1303,10 @@
         <v>14.7</v>
       </c>
       <c r="F26" t="n">
-        <v>147671.612</v>
+        <v>41282.4228</v>
       </c>
       <c r="G26" t="n">
-        <v>14.62</v>
+        <v>14.64833333333337</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1338,10 @@
         <v>14.7</v>
       </c>
       <c r="F27" t="n">
-        <v>3650</v>
+        <v>147671.612</v>
       </c>
       <c r="G27" t="n">
-        <v>14.64</v>
+        <v>14.65000000000003</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1361,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E28" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F28" t="n">
-        <v>17800</v>
+        <v>3650</v>
       </c>
       <c r="G28" t="n">
-        <v>14.68</v>
+        <v>14.6516666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1408,10 @@
         <v>14.8</v>
       </c>
       <c r="F29" t="n">
-        <v>6000</v>
+        <v>17800</v>
       </c>
       <c r="G29" t="n">
-        <v>14.74</v>
+        <v>14.65500000000003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1431,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E30" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F30" t="n">
-        <v>6799.1876</v>
+        <v>6000</v>
       </c>
       <c r="G30" t="n">
-        <v>14.74</v>
+        <v>14.65833333333336</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1466,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E31" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F31" t="n">
-        <v>22396.5752</v>
+        <v>6799.1876</v>
       </c>
       <c r="G31" t="n">
-        <v>14.76</v>
+        <v>14.66000000000003</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1501,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C32" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D32" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E32" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F32" t="n">
-        <v>31000</v>
+        <v>22396.5752</v>
       </c>
       <c r="G32" t="n">
-        <v>14.8</v>
+        <v>14.66333333333336</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1530,10 +1548,10 @@
         <v>14.9</v>
       </c>
       <c r="F33" t="n">
-        <v>20000</v>
+        <v>31000</v>
       </c>
       <c r="G33" t="n">
-        <v>14.82</v>
+        <v>14.66833333333336</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1565,10 +1583,10 @@
         <v>14.9</v>
       </c>
       <c r="F34" t="n">
-        <v>634.5637</v>
+        <v>20000</v>
       </c>
       <c r="G34" t="n">
-        <v>14.84</v>
+        <v>14.6766666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1600,10 +1618,10 @@
         <v>14.9</v>
       </c>
       <c r="F35" t="n">
-        <v>79026.38770000001</v>
+        <v>634.5637</v>
       </c>
       <c r="G35" t="n">
-        <v>14.88</v>
+        <v>14.68333333333336</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1641,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E36" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F36" t="n">
-        <v>101218.6333</v>
+        <v>79026.38770000001</v>
       </c>
       <c r="G36" t="n">
-        <v>14.92000000000001</v>
+        <v>14.69000000000003</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1670,10 +1688,10 @@
         <v>15</v>
       </c>
       <c r="F37" t="n">
-        <v>93009.0585</v>
+        <v>101218.6333</v>
       </c>
       <c r="G37" t="n">
-        <v>14.94</v>
+        <v>14.69666666666669</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1705,10 +1723,10 @@
         <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>50900</v>
+        <v>93009.0585</v>
       </c>
       <c r="G38" t="n">
-        <v>14.96</v>
+        <v>14.70333333333336</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,28 +1746,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E39" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F39" t="n">
-        <v>400000</v>
+        <v>50900</v>
       </c>
       <c r="G39" t="n">
-        <v>15.02</v>
+        <v>14.70833333333336</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1763,28 +1781,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C40" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E40" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F40" t="n">
-        <v>483</v>
+        <v>400000</v>
       </c>
       <c r="G40" t="n">
-        <v>15.04</v>
+        <v>14.72000000000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1798,22 +1816,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
         <v>15</v>
       </c>
       <c r="D41" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E41" t="n">
         <v>15</v>
       </c>
       <c r="F41" t="n">
-        <v>29111.612</v>
+        <v>483</v>
       </c>
       <c r="G41" t="n">
-        <v>15.04</v>
+        <v>14.72666666666669</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,28 +1851,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C42" t="n">
         <v>15</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E42" t="n">
         <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>99393.4566</v>
+        <v>29111.612</v>
       </c>
       <c r="G42" t="n">
-        <v>15.04</v>
+        <v>14.73500000000003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1871,25 +1889,25 @@
         <v>15</v>
       </c>
       <c r="C43" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
         <v>15</v>
       </c>
       <c r="E43" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F43" t="n">
-        <v>6000</v>
+        <v>99393.4566</v>
       </c>
       <c r="G43" t="n">
-        <v>15.02</v>
+        <v>14.74166666666669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1903,22 +1921,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
         <v>14.9</v>
       </c>
       <c r="D44" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E44" t="n">
         <v>14.9</v>
       </c>
       <c r="F44" t="n">
-        <v>150000</v>
+        <v>6000</v>
       </c>
       <c r="G44" t="n">
-        <v>14.96</v>
+        <v>14.74500000000003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1956,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C45" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="D45" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="E45" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="F45" t="n">
-        <v>676.7549</v>
+        <v>150000</v>
       </c>
       <c r="G45" t="n">
-        <v>14.98</v>
+        <v>14.74833333333336</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1985,10 +2003,10 @@
         <v>15.1</v>
       </c>
       <c r="F46" t="n">
-        <v>3537.8145</v>
+        <v>676.7549</v>
       </c>
       <c r="G46" t="n">
-        <v>15</v>
+        <v>14.75500000000002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2038,10 @@
         <v>15.1</v>
       </c>
       <c r="F47" t="n">
-        <v>1450.7056</v>
+        <v>3537.8145</v>
       </c>
       <c r="G47" t="n">
-        <v>15.02</v>
+        <v>14.76166666666669</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2061,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C48" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D48" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E48" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F48" t="n">
-        <v>30938.8157</v>
+        <v>1450.7056</v>
       </c>
       <c r="G48" t="n">
-        <v>15.04</v>
+        <v>14.76833333333336</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2096,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C49" t="n">
         <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E49" t="n">
         <v>15</v>
       </c>
       <c r="F49" t="n">
-        <v>1235.7186</v>
+        <v>30938.8157</v>
       </c>
       <c r="G49" t="n">
-        <v>15.06</v>
+        <v>14.77333333333336</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2131,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C50" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D50" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
-        <v>506.7894</v>
+        <v>1235.7186</v>
       </c>
       <c r="G50" t="n">
-        <v>15.08</v>
+        <v>14.78000000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2160,10 +2178,10 @@
         <v>15.2</v>
       </c>
       <c r="F51" t="n">
-        <v>105451.5789</v>
+        <v>506.7894</v>
       </c>
       <c r="G51" t="n">
-        <v>15.1</v>
+        <v>14.79166666666669</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2186,19 +2204,19 @@
         <v>15.2</v>
       </c>
       <c r="C52" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D52" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E52" t="n">
         <v>15.2</v>
       </c>
       <c r="F52" t="n">
-        <v>11881</v>
+        <v>105451.5789</v>
       </c>
       <c r="G52" t="n">
-        <v>15.14</v>
+        <v>14.80333333333336</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,7 +2236,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C53" t="n">
         <v>15.3</v>
@@ -2227,13 +2245,13 @@
         <v>15.3</v>
       </c>
       <c r="E53" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F53" t="n">
-        <v>37000</v>
+        <v>11881</v>
       </c>
       <c r="G53" t="n">
-        <v>15.2</v>
+        <v>14.81666666666669</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2256,19 +2274,19 @@
         <v>15.3</v>
       </c>
       <c r="C54" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="D54" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="E54" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F54" t="n">
-        <v>50614</v>
+        <v>37000</v>
       </c>
       <c r="G54" t="n">
-        <v>15.28</v>
+        <v>14.83000000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C55" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D55" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E55" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F55" t="n">
-        <v>5987</v>
+        <v>50614</v>
       </c>
       <c r="G55" t="n">
-        <v>15.28</v>
+        <v>14.84500000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2335,10 +2353,10 @@
         <v>15.2</v>
       </c>
       <c r="F56" t="n">
-        <v>6996.3341</v>
+        <v>5987</v>
       </c>
       <c r="G56" t="n">
-        <v>15.28</v>
+        <v>14.85500000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C57" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D57" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E57" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F57" t="n">
-        <v>4366.7427</v>
+        <v>6996.3341</v>
       </c>
       <c r="G57" t="n">
-        <v>15.24</v>
+        <v>14.86333333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2405,10 +2423,10 @@
         <v>15.1</v>
       </c>
       <c r="F58" t="n">
-        <v>3860.4758</v>
+        <v>4366.7427</v>
       </c>
       <c r="G58" t="n">
-        <v>15.2</v>
+        <v>14.86833333333336</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2458,10 @@
         <v>15.1</v>
       </c>
       <c r="F59" t="n">
-        <v>91260.0361</v>
+        <v>3860.4758</v>
       </c>
       <c r="G59" t="n">
-        <v>15.14</v>
+        <v>14.87333333333336</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C60" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D60" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E60" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F60" t="n">
-        <v>10100</v>
+        <v>91260.0361</v>
       </c>
       <c r="G60" t="n">
-        <v>15.14</v>
+        <v>14.87833333333336</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E61" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F61" t="n">
-        <v>70000</v>
+        <v>10100</v>
       </c>
       <c r="G61" t="n">
-        <v>15.12</v>
+        <v>14.88500000000003</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2545,10 +2563,10 @@
         <v>15.1</v>
       </c>
       <c r="F62" t="n">
-        <v>2512.6294</v>
+        <v>70000</v>
       </c>
       <c r="G62" t="n">
-        <v>15.12</v>
+        <v>14.89000000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2598,10 @@
         <v>15.1</v>
       </c>
       <c r="F63" t="n">
-        <v>14800</v>
+        <v>2512.6294</v>
       </c>
       <c r="G63" t="n">
-        <v>15.12</v>
+        <v>14.89500000000003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2633,10 @@
         <v>15.1</v>
       </c>
       <c r="F64" t="n">
-        <v>8175</v>
+        <v>14800</v>
       </c>
       <c r="G64" t="n">
-        <v>15.12</v>
+        <v>14.90000000000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2641,19 +2659,19 @@
         <v>15.1</v>
       </c>
       <c r="C65" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D65" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E65" t="n">
         <v>15.1</v>
       </c>
       <c r="F65" t="n">
-        <v>80529</v>
+        <v>8175</v>
       </c>
       <c r="G65" t="n">
-        <v>15.12</v>
+        <v>14.90500000000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2703,10 @@
         <v>15.1</v>
       </c>
       <c r="F66" t="n">
-        <v>28310</v>
+        <v>80529</v>
       </c>
       <c r="G66" t="n">
-        <v>15.14</v>
+        <v>14.9116666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2726,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C67" t="n">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="D67" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E67" t="n">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F67" t="n">
-        <v>135201.2544</v>
+        <v>28310</v>
       </c>
       <c r="G67" t="n">
-        <v>15.06</v>
+        <v>14.9166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2761,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D68" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E68" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F68" t="n">
-        <v>16622.8326</v>
+        <v>135201.2544</v>
       </c>
       <c r="G68" t="n">
-        <v>15</v>
+        <v>14.9166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2781,19 +2799,19 @@
         <v>14.8</v>
       </c>
       <c r="C69" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D69" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E69" t="n">
         <v>14.8</v>
       </c>
       <c r="F69" t="n">
-        <v>56940</v>
+        <v>16622.8326</v>
       </c>
       <c r="G69" t="n">
-        <v>14.96</v>
+        <v>14.91833333333337</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,7 +2831,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C70" t="n">
         <v>14.9</v>
@@ -2822,13 +2840,13 @@
         <v>14.9</v>
       </c>
       <c r="E70" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F70" t="n">
-        <v>75644</v>
+        <v>56940</v>
       </c>
       <c r="G70" t="n">
-        <v>14.9</v>
+        <v>14.9216666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +2878,10 @@
         <v>14.9</v>
       </c>
       <c r="F71" t="n">
-        <v>4319</v>
+        <v>75644</v>
       </c>
       <c r="G71" t="n">
-        <v>14.84</v>
+        <v>14.92500000000003</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +2913,10 @@
         <v>14.9</v>
       </c>
       <c r="F72" t="n">
-        <v>5000</v>
+        <v>4319</v>
       </c>
       <c r="G72" t="n">
-        <v>14.88</v>
+        <v>14.9266666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2930,10 +2948,10 @@
         <v>14.9</v>
       </c>
       <c r="F73" t="n">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G73" t="n">
-        <v>14.90000000000001</v>
+        <v>14.92833333333336</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2983,10 @@
         <v>14.9</v>
       </c>
       <c r="F74" t="n">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="G74" t="n">
-        <v>14.90000000000001</v>
+        <v>14.9316666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +3006,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C75" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D75" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E75" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F75" t="n">
-        <v>10816.5018</v>
+        <v>10500</v>
       </c>
       <c r="G75" t="n">
-        <v>14.92000000000001</v>
+        <v>14.93500000000003</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3026,19 +3044,19 @@
         <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D76" t="n">
         <v>15</v>
       </c>
       <c r="E76" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F76" t="n">
-        <v>25500</v>
+        <v>10816.5018</v>
       </c>
       <c r="G76" t="n">
-        <v>14.92000000000001</v>
+        <v>14.94166666666669</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C77" t="n">
         <v>14.9</v>
       </c>
       <c r="D77" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E77" t="n">
         <v>14.9</v>
       </c>
       <c r="F77" t="n">
-        <v>56036</v>
+        <v>25500</v>
       </c>
       <c r="G77" t="n">
-        <v>14.92000000000001</v>
+        <v>14.94666666666669</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="C78" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D78" t="n">
         <v>15.1</v>
       </c>
       <c r="E78" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F78" t="n">
-        <v>62730.3311</v>
+        <v>56036</v>
       </c>
       <c r="G78" t="n">
-        <v>14.94</v>
+        <v>14.95166666666669</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3149,19 @@
         <v>15.1</v>
       </c>
       <c r="C79" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
         <v>15.1</v>
       </c>
       <c r="E79" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F79" t="n">
-        <v>4979.8675</v>
+        <v>62730.3311</v>
       </c>
       <c r="G79" t="n">
-        <v>14.98</v>
+        <v>14.95833333333336</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3193,10 @@
         <v>15.1</v>
       </c>
       <c r="F80" t="n">
-        <v>28900.265</v>
+        <v>4979.8675</v>
       </c>
       <c r="G80" t="n">
-        <v>15</v>
+        <v>14.96666666666669</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3228,10 @@
         <v>15.1</v>
       </c>
       <c r="F81" t="n">
-        <v>7279</v>
+        <v>28900.265</v>
       </c>
       <c r="G81" t="n">
-        <v>15.04</v>
+        <v>14.97333333333336</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3254,19 @@
         <v>15.1</v>
       </c>
       <c r="C82" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D82" t="n">
         <v>15.1</v>
       </c>
       <c r="E82" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F82" t="n">
-        <v>55200</v>
+        <v>7279</v>
       </c>
       <c r="G82" t="n">
-        <v>15.06</v>
+        <v>14.98166666666669</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C83" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D83" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E83" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F83" t="n">
-        <v>53203</v>
+        <v>55200</v>
       </c>
       <c r="G83" t="n">
-        <v>15.1</v>
+        <v>14.98833333333336</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C84" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D84" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E84" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F84" t="n">
-        <v>89700</v>
+        <v>53203</v>
       </c>
       <c r="G84" t="n">
-        <v>15.08</v>
+        <v>14.99833333333336</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3356,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C85" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
         <v>15.1</v>
       </c>
       <c r="E85" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F85" t="n">
-        <v>76073</v>
+        <v>89700</v>
       </c>
       <c r="G85" t="n">
-        <v>15.08</v>
+        <v>15.00666666666669</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3394,19 @@
         <v>15</v>
       </c>
       <c r="C86" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D86" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E86" t="n">
         <v>14.9</v>
       </c>
       <c r="F86" t="n">
-        <v>61517</v>
+        <v>76073</v>
       </c>
       <c r="G86" t="n">
-        <v>15.04</v>
+        <v>15.01333333333336</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3426,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C87" t="n">
         <v>14.9</v>
       </c>
       <c r="D87" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E87" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F87" t="n">
-        <v>40022</v>
+        <v>61517</v>
       </c>
       <c r="G87" t="n">
-        <v>15.02</v>
+        <v>15.01666666666669</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3446,7 +3464,7 @@
         <v>14.9</v>
       </c>
       <c r="C88" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D88" t="n">
         <v>14.9</v>
@@ -3455,10 +3473,10 @@
         <v>14.8</v>
       </c>
       <c r="F88" t="n">
-        <v>57069.6826</v>
+        <v>40022</v>
       </c>
       <c r="G88" t="n">
-        <v>14.94</v>
+        <v>15.02000000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3481,19 +3499,19 @@
         <v>14.9</v>
       </c>
       <c r="C89" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D89" t="n">
         <v>14.9</v>
       </c>
       <c r="E89" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F89" t="n">
-        <v>3298</v>
+        <v>57069.6826</v>
       </c>
       <c r="G89" t="n">
-        <v>14.92</v>
+        <v>15.02000000000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3531,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C90" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D90" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E90" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F90" t="n">
-        <v>1479.8131</v>
+        <v>3298</v>
       </c>
       <c r="G90" t="n">
-        <v>14.86</v>
+        <v>15.02166666666669</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C91" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D91" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E91" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F91" t="n">
-        <v>130583.7555</v>
+        <v>1479.8131</v>
       </c>
       <c r="G91" t="n">
-        <v>14.86</v>
+        <v>15.02333333333336</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3613,10 @@
         <v>14.9</v>
       </c>
       <c r="F92" t="n">
-        <v>94008</v>
+        <v>130583.7555</v>
       </c>
       <c r="G92" t="n">
-        <v>14.86</v>
+        <v>15.02500000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3630,10 +3648,10 @@
         <v>14.9</v>
       </c>
       <c r="F93" t="n">
-        <v>31100.1236</v>
+        <v>94008</v>
       </c>
       <c r="G93" t="n">
-        <v>14.88</v>
+        <v>15.02500000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3683,10 @@
         <v>14.9</v>
       </c>
       <c r="F94" t="n">
-        <v>10000</v>
+        <v>31100.1236</v>
       </c>
       <c r="G94" t="n">
-        <v>14.88</v>
+        <v>15.02500000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3700,10 +3718,10 @@
         <v>14.9</v>
       </c>
       <c r="F95" t="n">
-        <v>1254</v>
+        <v>10000</v>
       </c>
       <c r="G95" t="n">
-        <v>14.90000000000001</v>
+        <v>15.02500000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C96" t="n">
         <v>14.9</v>
       </c>
       <c r="D96" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E96" t="n">
         <v>14.9</v>
       </c>
       <c r="F96" t="n">
-        <v>24231</v>
+        <v>1254</v>
       </c>
       <c r="G96" t="n">
-        <v>14.90000000000001</v>
+        <v>15.02500000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3779,19 @@
         <v>15</v>
       </c>
       <c r="C97" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D97" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="E97" t="n">
         <v>14.9</v>
       </c>
       <c r="F97" t="n">
-        <v>291221.9826116129</v>
+        <v>24231</v>
       </c>
       <c r="G97" t="n">
-        <v>14.92000000000001</v>
+        <v>15.02333333333336</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3814,19 @@
         <v>15</v>
       </c>
       <c r="C98" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D98" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="E98" t="n">
         <v>14.9</v>
       </c>
       <c r="F98" t="n">
-        <v>217872.9591</v>
+        <v>291221.9826116129</v>
       </c>
       <c r="G98" t="n">
-        <v>14.92000000000001</v>
+        <v>15.02333333333336</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3849,19 @@
         <v>15</v>
       </c>
       <c r="C99" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D99" t="n">
         <v>15</v>
       </c>
       <c r="E99" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F99" t="n">
-        <v>18375</v>
+        <v>217872.9591</v>
       </c>
       <c r="G99" t="n">
-        <v>14.94</v>
+        <v>15.02166666666669</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3875,10 +3893,10 @@
         <v>15</v>
       </c>
       <c r="F100" t="n">
-        <v>26818.193</v>
+        <v>18375</v>
       </c>
       <c r="G100" t="n">
-        <v>14.96</v>
+        <v>15.01833333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3910,10 +3928,10 @@
         <v>15</v>
       </c>
       <c r="F101" t="n">
-        <v>5389</v>
+        <v>26818.193</v>
       </c>
       <c r="G101" t="n">
-        <v>14.98</v>
+        <v>15.01833333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C102" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D102" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E102" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F102" t="n">
-        <v>10</v>
+        <v>5389</v>
       </c>
       <c r="G102" t="n">
-        <v>15.02</v>
+        <v>15.01833333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C103" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D103" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E103" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F103" t="n">
-        <v>2618.753</v>
+        <v>10</v>
       </c>
       <c r="G103" t="n">
-        <v>15.04</v>
+        <v>15.02166666666669</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4015,10 +4033,10 @@
         <v>15</v>
       </c>
       <c r="F104" t="n">
-        <v>2750.535</v>
+        <v>2618.753</v>
       </c>
       <c r="G104" t="n">
-        <v>15.04</v>
+        <v>15.02333333333336</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4068,10 @@
         <v>15</v>
       </c>
       <c r="F105" t="n">
-        <v>2462.395</v>
+        <v>2750.535</v>
       </c>
       <c r="G105" t="n">
-        <v>15.04</v>
+        <v>15.02500000000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4103,10 @@
         <v>15</v>
       </c>
       <c r="F106" t="n">
-        <v>2645</v>
+        <v>2462.395</v>
       </c>
       <c r="G106" t="n">
-        <v>15.04</v>
+        <v>15.02333333333336</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4138,10 @@
         <v>15</v>
       </c>
       <c r="F107" t="n">
-        <v>4659.998</v>
+        <v>2645</v>
       </c>
       <c r="G107" t="n">
-        <v>15</v>
+        <v>15.02166666666669</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4173,10 @@
         <v>15</v>
       </c>
       <c r="F108" t="n">
-        <v>36389</v>
+        <v>4659.998</v>
       </c>
       <c r="G108" t="n">
-        <v>15</v>
+        <v>15.02000000000002</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4208,10 @@
         <v>15</v>
       </c>
       <c r="F109" t="n">
-        <v>10000</v>
+        <v>36389</v>
       </c>
       <c r="G109" t="n">
-        <v>15</v>
+        <v>15.02000000000002</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C110" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F110" t="n">
-        <v>9353.0905</v>
+        <v>10000</v>
       </c>
       <c r="G110" t="n">
-        <v>15.02</v>
+        <v>15.02000000000002</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4269,19 @@
         <v>15.2</v>
       </c>
       <c r="C111" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="D111" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="E111" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F111" t="n">
-        <v>243268.1868</v>
+        <v>9353.0905</v>
       </c>
       <c r="G111" t="n">
-        <v>15.1</v>
+        <v>15.01833333333335</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,19 +4304,19 @@
         <v>15.2</v>
       </c>
       <c r="C112" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="D112" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="E112" t="n">
         <v>15.2</v>
       </c>
       <c r="F112" t="n">
-        <v>24010</v>
+        <v>243268.1868</v>
       </c>
       <c r="G112" t="n">
-        <v>15.14</v>
+        <v>15.02166666666669</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C113" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D113" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E113" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F113" t="n">
-        <v>12510</v>
+        <v>24010</v>
       </c>
       <c r="G113" t="n">
-        <v>15.2</v>
+        <v>15.02000000000002</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4365,10 +4383,10 @@
         <v>15.3</v>
       </c>
       <c r="F114" t="n">
-        <v>12500</v>
+        <v>12510</v>
       </c>
       <c r="G114" t="n">
-        <v>15.26</v>
+        <v>15.02000000000002</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,19 +4409,19 @@
         <v>15.3</v>
       </c>
       <c r="C115" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D115" t="n">
         <v>15.3</v>
       </c>
       <c r="E115" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F115" t="n">
-        <v>480987.0384</v>
+        <v>12500</v>
       </c>
       <c r="G115" t="n">
-        <v>15.26</v>
+        <v>15.01833333333335</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="C116" t="n">
         <v>15.1</v>
       </c>
       <c r="D116" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="E116" t="n">
         <v>15.1</v>
       </c>
       <c r="F116" t="n">
-        <v>74114.0938</v>
+        <v>480987.0384</v>
       </c>
       <c r="G116" t="n">
-        <v>15.2</v>
+        <v>15.01666666666669</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4476,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C117" t="n">
         <v>15.1</v>
       </c>
       <c r="D117" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E117" t="n">
         <v>15.1</v>
       </c>
       <c r="F117" t="n">
-        <v>31000</v>
+        <v>74114.0938</v>
       </c>
       <c r="G117" t="n">
-        <v>15.18</v>
+        <v>15.01500000000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C118" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D118" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E118" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F118" t="n">
-        <v>96</v>
+        <v>31000</v>
       </c>
       <c r="G118" t="n">
-        <v>15.16</v>
+        <v>15.01500000000002</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4546,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C119" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D119" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E119" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F119" t="n">
-        <v>28106.1</v>
+        <v>96</v>
       </c>
       <c r="G119" t="n">
-        <v>15.12</v>
+        <v>15.01666666666669</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4575,10 +4593,10 @@
         <v>15.1</v>
       </c>
       <c r="F120" t="n">
-        <v>47051.2216</v>
+        <v>28106.1</v>
       </c>
       <c r="G120" t="n">
-        <v>15.12</v>
+        <v>15.01666666666669</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C121" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D121" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E121" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F121" t="n">
-        <v>10</v>
+        <v>47051.2216</v>
       </c>
       <c r="G121" t="n">
-        <v>15.14</v>
+        <v>15.01500000000002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C122" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D122" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E122" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F122" t="n">
-        <v>116564.2087</v>
+        <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>15.12</v>
+        <v>15.01666666666669</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4680,10 +4698,10 @@
         <v>15</v>
       </c>
       <c r="F123" t="n">
-        <v>97438.06660000001</v>
+        <v>116564.2087</v>
       </c>
       <c r="G123" t="n">
-        <v>15.08</v>
+        <v>15.01500000000002</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4715,10 +4733,10 @@
         <v>15</v>
       </c>
       <c r="F124" t="n">
-        <v>85</v>
+        <v>97438.06660000001</v>
       </c>
       <c r="G124" t="n">
-        <v>15.06</v>
+        <v>15.01333333333335</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C125" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D125" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E125" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F125" t="n">
-        <v>12798.2553</v>
+        <v>85</v>
       </c>
       <c r="G125" t="n">
-        <v>15.02</v>
+        <v>15.01166666666669</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4776,19 +4794,19 @@
         <v>14.9</v>
       </c>
       <c r="C126" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D126" t="n">
         <v>14.9</v>
       </c>
       <c r="E126" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F126" t="n">
-        <v>214000</v>
+        <v>12798.2553</v>
       </c>
       <c r="G126" t="n">
-        <v>14.94</v>
+        <v>15.00666666666669</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C127" t="n">
         <v>14.8</v>
       </c>
       <c r="D127" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E127" t="n">
         <v>14.8</v>
       </c>
       <c r="F127" t="n">
-        <v>55000</v>
+        <v>214000</v>
       </c>
       <c r="G127" t="n">
-        <v>14.9</v>
+        <v>15.00000000000002</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4861,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C128" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="D128" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="E128" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F128" t="n">
-        <v>1307</v>
+        <v>55000</v>
       </c>
       <c r="G128" t="n">
-        <v>14.88</v>
+        <v>15.00166666666668</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4908,10 @@
         <v>14.9</v>
       </c>
       <c r="F129" t="n">
-        <v>14000</v>
+        <v>1307</v>
       </c>
       <c r="G129" t="n">
-        <v>14.86</v>
+        <v>15.00333333333335</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4916,19 +4934,19 @@
         <v>14.9</v>
       </c>
       <c r="C130" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D130" t="n">
         <v>14.9</v>
       </c>
       <c r="E130" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F130" t="n">
-        <v>5158.1518</v>
+        <v>14000</v>
       </c>
       <c r="G130" t="n">
-        <v>14.84</v>
+        <v>15.00333333333335</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4966,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C131" t="n">
         <v>14.8</v>
       </c>
       <c r="D131" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E131" t="n">
         <v>14.8</v>
       </c>
       <c r="F131" t="n">
-        <v>138276.924</v>
+        <v>5158.1518</v>
       </c>
       <c r="G131" t="n">
-        <v>14.84</v>
+        <v>15.00166666666668</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4995,10 +5013,10 @@
         <v>14.8</v>
       </c>
       <c r="F132" t="n">
-        <v>44806.9269</v>
+        <v>138276.924</v>
       </c>
       <c r="G132" t="n">
-        <v>14.84</v>
+        <v>15.00000000000002</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5030,10 +5048,10 @@
         <v>14.8</v>
       </c>
       <c r="F133" t="n">
-        <v>5193.0731</v>
+        <v>44806.9269</v>
       </c>
       <c r="G133" t="n">
-        <v>14.82</v>
+        <v>14.99833333333335</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5065,10 +5083,10 @@
         <v>14.8</v>
       </c>
       <c r="F134" t="n">
-        <v>487.5487</v>
+        <v>5193.0731</v>
       </c>
       <c r="G134" t="n">
-        <v>14.8</v>
+        <v>14.99666666666668</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5100,10 +5118,10 @@
         <v>14.8</v>
       </c>
       <c r="F135" t="n">
-        <v>120000</v>
+        <v>487.5487</v>
       </c>
       <c r="G135" t="n">
-        <v>14.8</v>
+        <v>14.99500000000001</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5126,19 +5144,19 @@
         <v>14.8</v>
       </c>
       <c r="C136" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D136" t="n">
         <v>14.8</v>
       </c>
       <c r="E136" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="F136" t="n">
-        <v>56287</v>
+        <v>120000</v>
       </c>
       <c r="G136" t="n">
-        <v>14.78</v>
+        <v>14.99166666666668</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5176,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C137" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D137" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E137" t="n">
         <v>14.6</v>
       </c>
       <c r="F137" t="n">
-        <v>50000</v>
+        <v>56287</v>
       </c>
       <c r="G137" t="n">
-        <v>14.74</v>
+        <v>14.98833333333335</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5196,19 +5214,19 @@
         <v>14.7</v>
       </c>
       <c r="C138" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="D138" t="n">
         <v>14.7</v>
       </c>
       <c r="E138" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F138" t="n">
-        <v>6587</v>
+        <v>50000</v>
       </c>
       <c r="G138" t="n">
-        <v>14.72</v>
+        <v>14.98333333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5240,10 +5258,10 @@
         <v>14.7</v>
       </c>
       <c r="F139" t="n">
-        <v>1372.8138</v>
+        <v>6587</v>
       </c>
       <c r="G139" t="n">
-        <v>14.7</v>
+        <v>14.97833333333335</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5275,10 +5293,10 @@
         <v>14.7</v>
       </c>
       <c r="F140" t="n">
-        <v>1729</v>
+        <v>1372.8138</v>
       </c>
       <c r="G140" t="n">
-        <v>14.68</v>
+        <v>14.97166666666668</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5328,10 @@
         <v>14.7</v>
       </c>
       <c r="F141" t="n">
-        <v>73000</v>
+        <v>1729</v>
       </c>
       <c r="G141" t="n">
-        <v>14.68</v>
+        <v>14.96500000000002</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5345,10 +5363,10 @@
         <v>14.7</v>
       </c>
       <c r="F142" t="n">
-        <v>81456.031</v>
+        <v>73000</v>
       </c>
       <c r="G142" t="n">
-        <v>14.7</v>
+        <v>14.95833333333335</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5371,35 +5389,29 @@
         <v>14.7</v>
       </c>
       <c r="C143" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D143" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="E143" t="n">
         <v>14.7</v>
       </c>
       <c r="F143" t="n">
-        <v>99923.1162</v>
+        <v>81456.031</v>
       </c>
       <c r="G143" t="n">
-        <v>14.74</v>
+        <v>14.95333333333335</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>14.7</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5409,38 +5421,32 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="C144" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D144" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E144" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="F144" t="n">
-        <v>215450.4096</v>
+        <v>99923.1162</v>
       </c>
       <c r="G144" t="n">
-        <v>14.8</v>
+        <v>14.94833333333335</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>14.9</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5462,26 +5468,20 @@
         <v>15</v>
       </c>
       <c r="F145" t="n">
-        <v>20000</v>
+        <v>215450.4096</v>
       </c>
       <c r="G145" t="n">
-        <v>14.86</v>
+        <v>14.94833333333335</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>15</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5491,22 +5491,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C146" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="D146" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E146" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="F146" t="n">
-        <v>60600</v>
+        <v>20000</v>
       </c>
       <c r="G146" t="n">
-        <v>14.86</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5516,11 +5516,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5530,22 +5526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C147" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="D147" t="n">
-        <v>15.5</v>
+        <v>14.8</v>
       </c>
       <c r="E147" t="n">
         <v>14.7</v>
       </c>
       <c r="F147" t="n">
-        <v>705281.9274625806</v>
+        <v>60600</v>
       </c>
       <c r="G147" t="n">
-        <v>14.9</v>
+        <v>14.94333333333335</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,11 +5551,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5575,16 +5567,16 @@
         <v>14.9</v>
       </c>
       <c r="D148" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="E148" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="F148" t="n">
-        <v>15617.069</v>
+        <v>705281.9274625806</v>
       </c>
       <c r="G148" t="n">
-        <v>14.9</v>
+        <v>14.94333333333335</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5594,11 +5586,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5611,19 +5599,19 @@
         <v>15</v>
       </c>
       <c r="C149" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D149" t="n">
         <v>15</v>
       </c>
       <c r="E149" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F149" t="n">
-        <v>2089.3957</v>
+        <v>15617.069</v>
       </c>
       <c r="G149" t="n">
-        <v>14.9</v>
+        <v>14.94500000000002</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5633,11 +5621,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5647,22 +5631,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C150" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D150" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E150" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F150" t="n">
-        <v>60000</v>
+        <v>2089.3957</v>
       </c>
       <c r="G150" t="n">
-        <v>14.88</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5672,11 +5656,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5698,10 +5678,10 @@
         <v>14.9</v>
       </c>
       <c r="F151" t="n">
-        <v>2543.23</v>
+        <v>60000</v>
       </c>
       <c r="G151" t="n">
-        <v>14.92000000000001</v>
+        <v>14.94833333333335</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5711,11 +5691,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5725,22 +5701,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C152" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="D152" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E152" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F152" t="n">
-        <v>114910</v>
+        <v>2543.23</v>
       </c>
       <c r="G152" t="n">
-        <v>14.9</v>
+        <v>14.94833333333335</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5750,11 +5726,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5764,22 +5736,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C153" t="n">
         <v>14.8</v>
       </c>
       <c r="D153" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E153" t="n">
         <v>14.8</v>
       </c>
       <c r="F153" t="n">
-        <v>15342.565</v>
+        <v>114910</v>
       </c>
       <c r="G153" t="n">
-        <v>14.88</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5789,11 +5761,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5803,22 +5771,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C154" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D154" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E154" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F154" t="n">
-        <v>10</v>
+        <v>15342.565</v>
       </c>
       <c r="G154" t="n">
-        <v>14.88</v>
+        <v>14.94500000000002</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5828,11 +5796,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5842,22 +5806,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C155" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D155" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E155" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="F155" t="n">
-        <v>5623</v>
+        <v>10</v>
       </c>
       <c r="G155" t="n">
-        <v>14.86</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5867,11 +5831,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5881,22 +5841,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="C156" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="D156" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="E156" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="F156" t="n">
-        <v>85</v>
+        <v>5623</v>
       </c>
       <c r="G156" t="n">
-        <v>14.88</v>
+        <v>14.94500000000002</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5906,11 +5866,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5923,19 +5879,19 @@
         <v>15</v>
       </c>
       <c r="C157" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D157" t="n">
         <v>15</v>
       </c>
       <c r="E157" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F157" t="n">
-        <v>39740</v>
+        <v>85</v>
       </c>
       <c r="G157" t="n">
-        <v>14.9</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5945,11 +5901,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5959,22 +5911,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C158" t="n">
         <v>14.9</v>
       </c>
       <c r="D158" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E158" t="n">
         <v>14.9</v>
       </c>
       <c r="F158" t="n">
-        <v>10000</v>
+        <v>39740</v>
       </c>
       <c r="G158" t="n">
-        <v>14.92</v>
+        <v>14.94500000000002</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5984,11 +5936,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5998,22 +5946,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C159" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D159" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E159" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F159" t="n">
-        <v>24</v>
+        <v>10000</v>
       </c>
       <c r="G159" t="n">
-        <v>14.92</v>
+        <v>14.94500000000002</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6023,11 +5971,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6040,19 +5984,19 @@
         <v>15</v>
       </c>
       <c r="C160" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D160" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E160" t="n">
         <v>15</v>
       </c>
       <c r="F160" t="n">
-        <v>11215.9234</v>
+        <v>24</v>
       </c>
       <c r="G160" t="n">
-        <v>14.98</v>
+        <v>14.94500000000002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6062,11 +6006,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6076,7 +6016,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C161" t="n">
         <v>15.1</v>
@@ -6085,13 +6025,13 @@
         <v>15.1</v>
       </c>
       <c r="E161" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F161" t="n">
-        <v>200</v>
+        <v>11215.9234</v>
       </c>
       <c r="G161" t="n">
-        <v>15</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6101,11 +6041,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6118,19 +6054,19 @@
         <v>15.1</v>
       </c>
       <c r="C162" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D162" t="n">
         <v>15.1</v>
       </c>
       <c r="E162" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F162" t="n">
-        <v>10927.311</v>
+        <v>200</v>
       </c>
       <c r="G162" t="n">
-        <v>15.02</v>
+        <v>14.94833333333335</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6140,11 +6076,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6154,22 +6086,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C163" t="n">
         <v>15</v>
       </c>
       <c r="D163" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E163" t="n">
         <v>15</v>
       </c>
       <c r="F163" t="n">
-        <v>15000</v>
+        <v>10927.311</v>
       </c>
       <c r="G163" t="n">
-        <v>15.04</v>
+        <v>14.94500000000002</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6179,11 +6111,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6193,22 +6121,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C164" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D164" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E164" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F164" t="n">
-        <v>10</v>
+        <v>15000</v>
       </c>
       <c r="G164" t="n">
-        <v>15.06</v>
+        <v>14.94500000000002</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6218,11 +6146,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6232,22 +6156,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C165" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D165" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E165" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="F165" t="n">
-        <v>147584.8925</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>15.04</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6257,11 +6181,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6283,10 +6203,10 @@
         <v>14.9</v>
       </c>
       <c r="F166" t="n">
-        <v>50875</v>
+        <v>147584.8925</v>
       </c>
       <c r="G166" t="n">
-        <v>15.02</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6296,11 +6216,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6310,7 +6226,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C167" t="n">
         <v>15</v>
@@ -6322,10 +6238,10 @@
         <v>14.9</v>
       </c>
       <c r="F167" t="n">
-        <v>20818.4311</v>
+        <v>50875</v>
       </c>
       <c r="G167" t="n">
-        <v>15.02</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6335,11 +6251,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6349,7 +6261,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C168" t="n">
         <v>15</v>
@@ -6358,13 +6270,13 @@
         <v>15</v>
       </c>
       <c r="E168" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F168" t="n">
-        <v>1000</v>
+        <v>20818.4311</v>
       </c>
       <c r="G168" t="n">
-        <v>15.02</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6374,11 +6286,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6400,10 +6308,10 @@
         <v>15</v>
       </c>
       <c r="F169" t="n">
-        <v>32370</v>
+        <v>1000</v>
       </c>
       <c r="G169" t="n">
-        <v>15</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6413,11 +6321,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6439,10 +6343,10 @@
         <v>15</v>
       </c>
       <c r="F170" t="n">
-        <v>16797</v>
+        <v>32370</v>
       </c>
       <c r="G170" t="n">
-        <v>15</v>
+        <v>14.94666666666668</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6452,11 +6356,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6469,19 +6369,19 @@
         <v>15</v>
       </c>
       <c r="C171" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D171" t="n">
         <v>15</v>
       </c>
       <c r="E171" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F171" t="n">
-        <v>143134.0833</v>
+        <v>16797</v>
       </c>
       <c r="G171" t="n">
-        <v>14.98</v>
+        <v>14.94500000000002</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6491,11 +6391,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6508,19 +6404,19 @@
         <v>15</v>
       </c>
       <c r="C172" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D172" t="n">
         <v>15</v>
       </c>
       <c r="E172" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F172" t="n">
-        <v>8621738.380799999</v>
+        <v>143134.0833</v>
       </c>
       <c r="G172" t="n">
-        <v>14.98</v>
+        <v>14.93666666666669</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6530,11 +6426,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6556,10 +6448,10 @@
         <v>15</v>
       </c>
       <c r="F173" t="n">
-        <v>4967213.787</v>
+        <v>8621738.380799999</v>
       </c>
       <c r="G173" t="n">
-        <v>14.98</v>
+        <v>14.93333333333335</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6569,11 +6461,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6583,22 +6471,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C174" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="D174" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="E174" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F174" t="n">
-        <v>10</v>
+        <v>4967213.787</v>
       </c>
       <c r="G174" t="n">
-        <v>15</v>
+        <v>14.92833333333335</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6608,11 +6496,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6625,19 +6509,19 @@
         <v>15.1</v>
       </c>
       <c r="C175" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D175" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E175" t="n">
         <v>15.1</v>
       </c>
       <c r="F175" t="n">
-        <v>61759.9973</v>
+        <v>10</v>
       </c>
       <c r="G175" t="n">
-        <v>15.04</v>
+        <v>14.92500000000002</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6647,11 +6531,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6664,19 +6544,19 @@
         <v>15.1</v>
       </c>
       <c r="C176" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D176" t="n">
         <v>15.2</v>
       </c>
       <c r="E176" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F176" t="n">
-        <v>4979.042</v>
+        <v>61759.9973</v>
       </c>
       <c r="G176" t="n">
-        <v>15.06</v>
+        <v>14.92666666666669</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6686,11 +6566,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6700,22 +6576,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C177" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D177" t="n">
         <v>15.2</v>
       </c>
       <c r="E177" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F177" t="n">
-        <v>14</v>
+        <v>4979.042</v>
       </c>
       <c r="G177" t="n">
-        <v>15.1</v>
+        <v>14.92500000000002</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6725,11 +6601,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6739,22 +6611,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="C178" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D178" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="E178" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F178" t="n">
-        <v>2321.783</v>
+        <v>14</v>
       </c>
       <c r="G178" t="n">
-        <v>15.1</v>
+        <v>14.92666666666669</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6764,11 +6636,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6778,22 +6646,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="C179" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D179" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E179" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F179" t="n">
-        <v>22</v>
+        <v>2321.783</v>
       </c>
       <c r="G179" t="n">
-        <v>15.12</v>
+        <v>14.92333333333335</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6803,11 +6671,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6817,22 +6681,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C180" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D180" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E180" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F180" t="n">
-        <v>143247.8174</v>
+        <v>22</v>
       </c>
       <c r="G180" t="n">
-        <v>15.08</v>
+        <v>14.92500000000002</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6842,11 +6706,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6856,22 +6716,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C181" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D181" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E181" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F181" t="n">
-        <v>2000</v>
+        <v>143247.8174</v>
       </c>
       <c r="G181" t="n">
-        <v>15.06</v>
+        <v>14.92333333333335</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6881,11 +6741,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6898,19 +6754,19 @@
         <v>15</v>
       </c>
       <c r="C182" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D182" t="n">
         <v>15</v>
       </c>
       <c r="E182" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F182" t="n">
-        <v>18475</v>
+        <v>2000</v>
       </c>
       <c r="G182" t="n">
-        <v>15.02</v>
+        <v>14.91833333333335</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6920,11 +6776,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6946,10 +6798,10 @@
         <v>15</v>
       </c>
       <c r="F183" t="n">
-        <v>80000</v>
+        <v>18475</v>
       </c>
       <c r="G183" t="n">
-        <v>15.02</v>
+        <v>14.91833333333335</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6959,11 +6811,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6973,22 +6821,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C184" t="n">
         <v>15</v>
       </c>
       <c r="D184" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="E184" t="n">
         <v>15</v>
       </c>
       <c r="F184" t="n">
-        <v>85575.50930000001</v>
+        <v>80000</v>
       </c>
       <c r="G184" t="n">
-        <v>14.98</v>
+        <v>14.91833333333335</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6998,11 +6846,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7018,16 +6862,16 @@
         <v>15</v>
       </c>
       <c r="D185" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E185" t="n">
         <v>15</v>
       </c>
       <c r="F185" t="n">
-        <v>26700</v>
+        <v>85575.50930000001</v>
       </c>
       <c r="G185" t="n">
-        <v>14.98</v>
+        <v>14.91833333333335</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7037,11 +6881,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7051,22 +6891,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C186" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D186" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E186" t="n">
         <v>15</v>
       </c>
       <c r="F186" t="n">
-        <v>6199</v>
+        <v>26700</v>
       </c>
       <c r="G186" t="n">
-        <v>15.04</v>
+        <v>14.92000000000002</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7076,11 +6916,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7090,7 +6926,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="C187" t="n">
         <v>15.2</v>
@@ -7099,13 +6935,13 @@
         <v>15.2</v>
       </c>
       <c r="E187" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="F187" t="n">
-        <v>55597.9605</v>
+        <v>6199</v>
       </c>
       <c r="G187" t="n">
-        <v>15.08</v>
+        <v>14.92666666666669</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7115,11 +6951,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7129,7 +6961,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C188" t="n">
         <v>15.2</v>
@@ -7138,13 +6970,13 @@
         <v>15.2</v>
       </c>
       <c r="E188" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F188" t="n">
-        <v>41881.9868</v>
+        <v>55597.9605</v>
       </c>
       <c r="G188" t="n">
-        <v>15.12</v>
+        <v>14.93333333333335</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7154,11 +6986,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7180,10 +7008,10 @@
         <v>15.2</v>
       </c>
       <c r="F189" t="n">
-        <v>71955.5131</v>
+        <v>41881.9868</v>
       </c>
       <c r="G189" t="n">
-        <v>15.16</v>
+        <v>14.93833333333336</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7193,11 +7021,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7207,22 +7031,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="C190" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="D190" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="E190" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="F190" t="n">
-        <v>10</v>
+        <v>71955.5131</v>
       </c>
       <c r="G190" t="n">
-        <v>15.22</v>
+        <v>14.94333333333336</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7232,11 +7056,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7246,22 +7066,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="C191" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="D191" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="E191" t="n">
-        <v>15.1</v>
+        <v>15.3</v>
       </c>
       <c r="F191" t="n">
-        <v>18350</v>
+        <v>10</v>
       </c>
       <c r="G191" t="n">
-        <v>15.2</v>
+        <v>14.95166666666669</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7271,11 +7091,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7297,10 +7113,10 @@
         <v>15.1</v>
       </c>
       <c r="F192" t="n">
-        <v>2080</v>
+        <v>18350</v>
       </c>
       <c r="G192" t="n">
-        <v>15.18</v>
+        <v>14.95666666666669</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7310,11 +7126,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7324,22 +7136,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C193" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D193" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E193" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F193" t="n">
-        <v>10</v>
+        <v>2080</v>
       </c>
       <c r="G193" t="n">
-        <v>15.18</v>
+        <v>14.96166666666669</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7349,11 +7161,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7375,10 +7183,10 @@
         <v>15.2</v>
       </c>
       <c r="F194" t="n">
-        <v>20718.8815</v>
+        <v>10</v>
       </c>
       <c r="G194" t="n">
-        <v>15.18</v>
+        <v>14.96833333333336</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7388,11 +7196,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7414,10 +7218,10 @@
         <v>15.2</v>
       </c>
       <c r="F195" t="n">
-        <v>8244.2763</v>
+        <v>20718.8815</v>
       </c>
       <c r="G195" t="n">
-        <v>15.16</v>
+        <v>14.97500000000003</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7427,11 +7231,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7441,22 +7241,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C196" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D196" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E196" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F196" t="n">
-        <v>530000</v>
+        <v>8244.2763</v>
       </c>
       <c r="G196" t="n">
-        <v>15.16</v>
+        <v>14.9816666666667</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7466,11 +7266,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7492,10 +7288,10 @@
         <v>15.1</v>
       </c>
       <c r="F197" t="n">
-        <v>6000</v>
+        <v>530000</v>
       </c>
       <c r="G197" t="n">
-        <v>15.16</v>
+        <v>14.98833333333336</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7505,11 +7301,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7531,10 +7323,10 @@
         <v>15.1</v>
       </c>
       <c r="F198" t="n">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="G198" t="n">
-        <v>15.14</v>
+        <v>14.9966666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7544,11 +7336,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7570,10 +7358,10 @@
         <v>15.1</v>
       </c>
       <c r="F199" t="n">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="G199" t="n">
-        <v>15.12</v>
+        <v>15.00333333333336</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7583,11 +7371,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7609,10 +7393,10 @@
         <v>15.1</v>
       </c>
       <c r="F200" t="n">
-        <v>13026.8421</v>
+        <v>40000</v>
       </c>
       <c r="G200" t="n">
-        <v>15.09999999999999</v>
+        <v>15.01000000000003</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7622,11 +7406,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7636,22 +7416,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C201" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D201" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E201" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F201" t="n">
-        <v>12.8244</v>
+        <v>13026.8421</v>
       </c>
       <c r="G201" t="n">
-        <v>15.12</v>
+        <v>15.0166666666667</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7661,11 +7441,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7675,22 +7451,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C202" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="D202" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E202" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="F202" t="n">
-        <v>37900</v>
+        <v>12.8244</v>
       </c>
       <c r="G202" t="n">
-        <v>15.1</v>
+        <v>15.02500000000003</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7700,11 +7476,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7714,22 +7486,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C203" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="D203" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E203" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="F203" t="n">
-        <v>18.4444</v>
+        <v>37900</v>
       </c>
       <c r="G203" t="n">
-        <v>15.12</v>
+        <v>15.03000000000003</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7739,11 +7511,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7753,22 +7521,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C204" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D204" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E204" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F204" t="n">
-        <v>4958.344</v>
+        <v>18.4444</v>
       </c>
       <c r="G204" t="n">
-        <v>15.12</v>
+        <v>15.03500000000003</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7778,11 +7546,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7804,10 +7568,10 @@
         <v>15.1</v>
       </c>
       <c r="F205" t="n">
-        <v>1079</v>
+        <v>4958.344</v>
       </c>
       <c r="G205" t="n">
-        <v>15.12</v>
+        <v>15.0366666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7817,11 +7581,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7843,10 +7603,10 @@
         <v>15.1</v>
       </c>
       <c r="F206" t="n">
-        <v>3676</v>
+        <v>1079</v>
       </c>
       <c r="G206" t="n">
-        <v>15.1</v>
+        <v>15.03833333333336</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7856,11 +7616,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7882,10 +7638,10 @@
         <v>15.1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6293</v>
+        <v>3676</v>
       </c>
       <c r="G207" t="n">
-        <v>15.12</v>
+        <v>15.04500000000003</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7895,11 +7651,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7921,10 +7673,10 @@
         <v>15.1</v>
       </c>
       <c r="F208" t="n">
-        <v>33428.3159</v>
+        <v>0.6293</v>
       </c>
       <c r="G208" t="n">
-        <v>15.09999999999999</v>
+        <v>15.04833333333336</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7934,11 +7686,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7951,19 +7699,19 @@
         <v>15.1</v>
       </c>
       <c r="C209" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D209" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E209" t="n">
         <v>15.1</v>
       </c>
       <c r="F209" t="n">
-        <v>45933.5657</v>
+        <v>33428.3159</v>
       </c>
       <c r="G209" t="n">
-        <v>15.12</v>
+        <v>15.0516666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7973,11 +7721,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7987,10 +7731,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C210" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D210" t="n">
         <v>15.2</v>
@@ -7999,10 +7743,10 @@
         <v>15.1</v>
       </c>
       <c r="F210" t="n">
-        <v>70578.4638</v>
+        <v>45933.5657</v>
       </c>
       <c r="G210" t="n">
-        <v>15.12</v>
+        <v>15.05500000000003</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8012,11 +7756,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8026,22 +7766,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C211" t="n">
         <v>15.1</v>
       </c>
       <c r="D211" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E211" t="n">
         <v>15.1</v>
       </c>
       <c r="F211" t="n">
-        <v>22785.496</v>
+        <v>70578.4638</v>
       </c>
       <c r="G211" t="n">
-        <v>15.12</v>
+        <v>15.05833333333337</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8051,11 +7791,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8077,10 +7813,10 @@
         <v>15.1</v>
       </c>
       <c r="F212" t="n">
-        <v>4771.287</v>
+        <v>22785.496</v>
       </c>
       <c r="G212" t="n">
-        <v>15.12</v>
+        <v>15.0616666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8090,11 +7826,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8116,10 +7848,10 @@
         <v>15.1</v>
       </c>
       <c r="F213" t="n">
-        <v>1874.613</v>
+        <v>4771.287</v>
       </c>
       <c r="G213" t="n">
-        <v>15.12</v>
+        <v>15.0666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8129,11 +7861,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8155,10 +7883,10 @@
         <v>15.1</v>
       </c>
       <c r="F214" t="n">
-        <v>1883.855</v>
+        <v>1874.613</v>
       </c>
       <c r="G214" t="n">
-        <v>15.09999999999999</v>
+        <v>15.0716666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8168,11 +7896,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8194,10 +7918,10 @@
         <v>15.1</v>
       </c>
       <c r="F215" t="n">
-        <v>42853.2331</v>
+        <v>1883.855</v>
       </c>
       <c r="G215" t="n">
-        <v>15.09999999999999</v>
+        <v>15.07333333333337</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8207,11 +7931,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8233,10 +7953,10 @@
         <v>15.1</v>
       </c>
       <c r="F216" t="n">
-        <v>30891.9811</v>
+        <v>42853.2331</v>
       </c>
       <c r="G216" t="n">
-        <v>15.09999999999999</v>
+        <v>15.07833333333337</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8246,11 +7966,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8260,22 +7976,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="C217" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="D217" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="E217" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F217" t="n">
-        <v>18900</v>
+        <v>30891.9811</v>
       </c>
       <c r="G217" t="n">
-        <v>15.12</v>
+        <v>15.08000000000004</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8285,11 +8001,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8299,22 +8011,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="C218" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="D218" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="E218" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="F218" t="n">
-        <v>10</v>
+        <v>18900</v>
       </c>
       <c r="G218" t="n">
-        <v>15.12</v>
+        <v>15.08500000000004</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8324,11 +8036,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8338,22 +8046,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="C219" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="D219" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="E219" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="F219" t="n">
-        <v>1888.7323</v>
+        <v>10</v>
       </c>
       <c r="G219" t="n">
-        <v>15.1</v>
+        <v>15.08833333333337</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8363,11 +8071,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8389,10 +8093,10 @@
         <v>15</v>
       </c>
       <c r="F220" t="n">
-        <v>2600</v>
+        <v>1888.7323</v>
       </c>
       <c r="G220" t="n">
-        <v>15.08</v>
+        <v>15.08833333333337</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8402,11 +8106,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8428,10 +8128,10 @@
         <v>15</v>
       </c>
       <c r="F221" t="n">
-        <v>293776.7832</v>
+        <v>2600</v>
       </c>
       <c r="G221" t="n">
-        <v>15.06</v>
+        <v>15.08666666666671</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8441,11 +8141,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8467,10 +8163,10 @@
         <v>15</v>
       </c>
       <c r="F222" t="n">
-        <v>230576.4398</v>
+        <v>293776.7832</v>
       </c>
       <c r="G222" t="n">
-        <v>15.02</v>
+        <v>15.08500000000004</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8480,11 +8176,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8494,22 +8186,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C223" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D223" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E223" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F223" t="n">
-        <v>35.885</v>
+        <v>230576.4398</v>
       </c>
       <c r="G223" t="n">
-        <v>14.98</v>
+        <v>15.08500000000004</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8519,11 +8211,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8533,22 +8221,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C224" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D224" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E224" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F224" t="n">
-        <v>12.0212</v>
+        <v>35.885</v>
       </c>
       <c r="G224" t="n">
-        <v>14.98</v>
+        <v>15.08333333333337</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8558,11 +8246,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8584,10 +8268,10 @@
         <v>15</v>
       </c>
       <c r="F225" t="n">
-        <v>31200</v>
+        <v>12.0212</v>
       </c>
       <c r="G225" t="n">
-        <v>14.98</v>
+        <v>15.0816666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8597,11 +8281,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8611,7 +8291,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C226" t="n">
         <v>15</v>
@@ -8620,13 +8300,13 @@
         <v>15</v>
       </c>
       <c r="E226" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F226" t="n">
-        <v>6664.6589</v>
+        <v>31200</v>
       </c>
       <c r="G226" t="n">
-        <v>14.98</v>
+        <v>15.0816666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8636,11 +8316,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8650,7 +8326,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C227" t="n">
         <v>15</v>
@@ -8659,13 +8335,13 @@
         <v>15</v>
       </c>
       <c r="E227" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F227" t="n">
-        <v>163130.7411</v>
+        <v>6664.6589</v>
       </c>
       <c r="G227" t="n">
-        <v>14.98</v>
+        <v>15.0816666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8675,11 +8351,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8689,22 +8361,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C228" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D228" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E228" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F228" t="n">
-        <v>49900</v>
+        <v>163130.7411</v>
       </c>
       <c r="G228" t="n">
-        <v>14.98</v>
+        <v>15.0816666666667</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8714,11 +8386,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8728,22 +8396,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C229" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D229" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E229" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F229" t="n">
-        <v>39900</v>
+        <v>49900</v>
       </c>
       <c r="G229" t="n">
-        <v>14.98</v>
+        <v>15.08000000000004</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8753,11 +8421,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8767,22 +8431,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="C230" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="D230" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="E230" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="F230" t="n">
-        <v>17900</v>
+        <v>39900</v>
       </c>
       <c r="G230" t="n">
-        <v>14.96</v>
+        <v>15.08000000000004</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8792,11 +8456,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8818,10 +8478,10 @@
         <v>14.9</v>
       </c>
       <c r="F231" t="n">
-        <v>32800</v>
+        <v>17900</v>
       </c>
       <c r="G231" t="n">
-        <v>14.94</v>
+        <v>15.07833333333337</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8831,11 +8491,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8857,10 +8513,10 @@
         <v>14.9</v>
       </c>
       <c r="F232" t="n">
-        <v>70000</v>
+        <v>32800</v>
       </c>
       <c r="G232" t="n">
-        <v>14.92000000000001</v>
+        <v>15.07833333333337</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8870,11 +8526,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8884,22 +8536,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="C233" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="D233" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="E233" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="F233" t="n">
-        <v>929.8665999999999</v>
+        <v>70000</v>
       </c>
       <c r="G233" t="n">
-        <v>14.94</v>
+        <v>15.0766666666667</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8909,11 +8561,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8923,22 +8571,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="C234" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D234" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="E234" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="F234" t="n">
-        <v>20000</v>
+        <v>929.8665999999999</v>
       </c>
       <c r="G234" t="n">
-        <v>14.9</v>
+        <v>15.0766666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8948,11 +8596,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8974,10 +8618,10 @@
         <v>14.8</v>
       </c>
       <c r="F235" t="n">
-        <v>74200</v>
+        <v>20000</v>
       </c>
       <c r="G235" t="n">
-        <v>14.88</v>
+        <v>15.0716666666667</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8987,11 +8631,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9013,10 +8653,10 @@
         <v>14.8</v>
       </c>
       <c r="F236" t="n">
-        <v>66869.12149999999</v>
+        <v>74200</v>
       </c>
       <c r="G236" t="n">
-        <v>14.86</v>
+        <v>15.06500000000003</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9026,11 +8666,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9040,22 +8676,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C237" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D237" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E237" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F237" t="n">
-        <v>104294.3441</v>
+        <v>66869.12149999999</v>
       </c>
       <c r="G237" t="n">
-        <v>14.82</v>
+        <v>15.0616666666667</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9065,11 +8701,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9091,10 +8723,10 @@
         <v>14.7</v>
       </c>
       <c r="F238" t="n">
-        <v>6689.0562</v>
+        <v>104294.3441</v>
       </c>
       <c r="G238" t="n">
-        <v>14.76</v>
+        <v>15.05333333333337</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9104,11 +8736,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9130,10 +8758,10 @@
         <v>14.7</v>
       </c>
       <c r="F239" t="n">
-        <v>144300</v>
+        <v>6689.0562</v>
       </c>
       <c r="G239" t="n">
-        <v>14.74</v>
+        <v>15.04833333333337</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9143,11 +8771,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9160,19 +8784,19 @@
         <v>14.7</v>
       </c>
       <c r="C240" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D240" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E240" t="n">
         <v>14.7</v>
       </c>
       <c r="F240" t="n">
-        <v>125</v>
+        <v>144300</v>
       </c>
       <c r="G240" t="n">
-        <v>14.74</v>
+        <v>15.04000000000003</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9182,11 +8806,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9196,7 +8816,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C241" t="n">
         <v>14.8</v>
@@ -9205,13 +8825,13 @@
         <v>14.8</v>
       </c>
       <c r="E241" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F241" t="n">
-        <v>940.0675675675676</v>
+        <v>125</v>
       </c>
       <c r="G241" t="n">
-        <v>14.74</v>
+        <v>15.0366666666667</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9221,11 +8841,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9235,22 +8851,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C242" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D242" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E242" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F242" t="n">
-        <v>20667.0843</v>
+        <v>940.0675675675676</v>
       </c>
       <c r="G242" t="n">
-        <v>14.74</v>
+        <v>15.03500000000003</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9260,11 +8876,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9274,22 +8886,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C243" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D243" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E243" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F243" t="n">
-        <v>25</v>
+        <v>20667.0843</v>
       </c>
       <c r="G243" t="n">
-        <v>14.76</v>
+        <v>15.03000000000003</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9299,11 +8911,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9325,10 +8933,10 @@
         <v>14.8</v>
       </c>
       <c r="F244" t="n">
-        <v>77686.1486</v>
+        <v>25</v>
       </c>
       <c r="G244" t="n">
-        <v>14.78</v>
+        <v>15.0266666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9338,11 +8946,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9352,22 +8956,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C245" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D245" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E245" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="F245" t="n">
-        <v>35413.6428</v>
+        <v>77686.1486</v>
       </c>
       <c r="G245" t="n">
-        <v>14.76</v>
+        <v>15.02333333333337</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9377,11 +8981,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9403,10 +9003,10 @@
         <v>14.7</v>
       </c>
       <c r="F246" t="n">
-        <v>10</v>
+        <v>35413.6428</v>
       </c>
       <c r="G246" t="n">
-        <v>14.74</v>
+        <v>15.01833333333337</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9416,11 +9016,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9433,19 +9029,19 @@
         <v>14.7</v>
       </c>
       <c r="C247" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D247" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E247" t="n">
         <v>14.7</v>
       </c>
       <c r="F247" t="n">
-        <v>22212.8361</v>
+        <v>10</v>
       </c>
       <c r="G247" t="n">
-        <v>14.76</v>
+        <v>15.01000000000003</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9455,11 +9051,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9469,7 +9061,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="C248" t="n">
         <v>14.8</v>
@@ -9478,13 +9070,13 @@
         <v>14.8</v>
       </c>
       <c r="E248" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F248" t="n">
-        <v>14</v>
+        <v>22212.8361</v>
       </c>
       <c r="G248" t="n">
-        <v>14.76</v>
+        <v>15.00333333333336</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9494,11 +9086,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9508,22 +9096,22 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="C249" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D249" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="E249" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F249" t="n">
-        <v>62236.0771</v>
+        <v>14</v>
       </c>
       <c r="G249" t="n">
-        <v>14.7</v>
+        <v>14.9966666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9533,11 +9121,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9547,38 +9131,32 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="C250" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D250" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="E250" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F250" t="n">
-        <v>83.815</v>
+        <v>62236.0771</v>
       </c>
       <c r="G250" t="n">
-        <v>14.72</v>
+        <v>14.98500000000003</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9588,38 +9166,32 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C251" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="D251" t="n">
         <v>14.8</v>
       </c>
       <c r="E251" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="F251" t="n">
-        <v>21</v>
+        <v>83.815</v>
       </c>
       <c r="G251" t="n">
-        <v>14.72</v>
+        <v>14.97666666666669</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9632,19 +9204,19 @@
         <v>14.8</v>
       </c>
       <c r="C252" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="D252" t="n">
         <v>14.8</v>
       </c>
       <c r="E252" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="F252" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G252" t="n">
-        <v>14.72</v>
+        <v>14.97000000000003</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9654,11 +9226,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9668,22 +9236,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="C253" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D253" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E253" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="F253" t="n">
-        <v>104570.4859</v>
+        <v>11</v>
       </c>
       <c r="G253" t="n">
-        <v>14.66</v>
+        <v>14.96500000000003</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9693,11 +9261,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9719,10 +9283,10 @@
         <v>14.5</v>
       </c>
       <c r="F254" t="n">
-        <v>6077</v>
+        <v>104570.4859</v>
       </c>
       <c r="G254" t="n">
-        <v>14.66</v>
+        <v>14.95333333333336</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9732,11 +9296,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9746,22 +9306,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C255" t="n">
         <v>14.5</v>
       </c>
       <c r="D255" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E255" t="n">
         <v>14.5</v>
       </c>
       <c r="F255" t="n">
-        <v>12163.1798</v>
+        <v>6077</v>
       </c>
       <c r="G255" t="n">
-        <v>14.6</v>
+        <v>14.94166666666669</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9771,11 +9331,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9785,22 +9341,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C256" t="n">
         <v>14.5</v>
       </c>
       <c r="D256" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E256" t="n">
         <v>14.5</v>
       </c>
       <c r="F256" t="n">
-        <v>995.8796</v>
+        <v>12163.1798</v>
       </c>
       <c r="G256" t="n">
-        <v>14.56</v>
+        <v>14.93000000000003</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9810,11 +9366,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9824,7 +9376,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C257" t="n">
         <v>14.5</v>
@@ -9833,13 +9385,13 @@
         <v>14.5</v>
       </c>
       <c r="E257" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F257" t="n">
-        <v>359.3588</v>
+        <v>995.8796</v>
       </c>
       <c r="G257" t="n">
-        <v>14.5</v>
+        <v>14.92000000000002</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9849,11 +9401,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9866,35 +9414,29 @@
         <v>14.4</v>
       </c>
       <c r="C258" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="D258" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="E258" t="n">
         <v>14.4</v>
       </c>
       <c r="F258" t="n">
-        <v>91422.4265</v>
+        <v>359.3588</v>
       </c>
       <c r="G258" t="n">
-        <v>14.56</v>
+        <v>14.91000000000003</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9904,38 +9446,32 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C259" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="D259" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="E259" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F259" t="n">
-        <v>6090.6921</v>
+        <v>91422.4265</v>
       </c>
       <c r="G259" t="n">
-        <v>14.56</v>
+        <v>14.90500000000002</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>14.8</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9945,22 +9481,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C260" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D260" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E260" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F260" t="n">
-        <v>19950</v>
+        <v>6090.6921</v>
       </c>
       <c r="G260" t="n">
-        <v>14.54</v>
+        <v>14.89500000000002</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9970,11 +9506,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9984,22 +9516,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C261" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D261" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E261" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F261" t="n">
-        <v>10</v>
+        <v>19950</v>
       </c>
       <c r="G261" t="n">
-        <v>14.54</v>
+        <v>14.88333333333336</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10009,11 +9541,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10023,22 +9551,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C262" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D262" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E262" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F262" t="n">
-        <v>2833.159</v>
+        <v>10</v>
       </c>
       <c r="G262" t="n">
-        <v>14.52</v>
+        <v>14.87166666666669</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10048,11 +9576,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10065,19 +9589,19 @@
         <v>14.4</v>
       </c>
       <c r="C263" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D263" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E263" t="n">
         <v>14.4</v>
       </c>
       <c r="F263" t="n">
-        <v>244178</v>
+        <v>2833.159</v>
       </c>
       <c r="G263" t="n">
-        <v>14.46</v>
+        <v>14.86166666666669</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10087,11 +9611,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10104,35 +9624,29 @@
         <v>14.4</v>
       </c>
       <c r="C264" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D264" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E264" t="n">
         <v>14.4</v>
       </c>
       <c r="F264" t="n">
-        <v>22295.86</v>
+        <v>244178</v>
       </c>
       <c r="G264" t="n">
-        <v>14.44</v>
+        <v>14.85000000000002</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>14.5</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10154,26 +9668,20 @@
         <v>14.4</v>
       </c>
       <c r="F265" t="n">
-        <v>9984.557000000001</v>
+        <v>22295.86</v>
       </c>
       <c r="G265" t="n">
-        <v>14.44</v>
+        <v>14.83833333333335</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10195,26 +9703,20 @@
         <v>14.4</v>
       </c>
       <c r="F266" t="n">
-        <v>78049.069</v>
+        <v>9984.557000000001</v>
       </c>
       <c r="G266" t="n">
-        <v>14.42000000000001</v>
+        <v>14.82666666666669</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10224,38 +9726,32 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="C267" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="D267" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="E267" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="F267" t="n">
-        <v>28600</v>
+        <v>78049.069</v>
       </c>
       <c r="G267" t="n">
-        <v>14.4</v>
+        <v>14.81500000000002</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>14.4</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10265,39 +9761,68 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C268" t="n">
         <v>14.3</v>
       </c>
       <c r="D268" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E268" t="n">
         <v>14.3</v>
       </c>
       <c r="F268" t="n">
+        <v>28600</v>
+      </c>
+      <c r="G268" t="n">
+        <v>14.80166666666668</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C269" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D269" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E269" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F269" t="n">
         <v>10310</v>
       </c>
-      <c r="G268" t="n">
-        <v>14.36</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M268" t="n">
+      <c r="G269" t="n">
+        <v>14.78833333333335</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest MITH.xlsx
+++ b/BackTest/2019-10-26 BackTest MITH.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M269"/>
+  <dimension ref="A1:N279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>50000</v>
       </c>
       <c r="G2" t="n">
+        <v>14.65333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>14.69166666666669</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,21 @@
         <v>5346.0135</v>
       </c>
       <c r="G3" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="H3" t="n">
         <v>14.69500000000003</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,417 +529,455 @@
         <v>32500</v>
       </c>
       <c r="G4" t="n">
+        <v>14.66666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>14.69833333333336</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2200</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14.70166666666669</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14.70500000000002</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10320</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14.72666666666667</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.70666666666669</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>182.2834</v>
+      </c>
+      <c r="G8" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.70500000000002</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14.75333333333333</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.70333333333336</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F10" t="n">
+        <v>37900</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14.76666666666666</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.70000000000003</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F11" t="n">
+        <v>44300</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14.77333333333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.69666666666669</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>72920.85340000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="H12" t="n">
+        <v>14.69333333333336</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="H13" t="n">
+        <v>14.69333333333336</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>14.77333333333333</v>
+      </c>
+      <c r="H14" t="n">
+        <v>14.69000000000003</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14.70166666666669</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="E15" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F15" t="n">
+        <v>93968.7527</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14.76666666666666</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14.68500000000003</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>14.70500000000002</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="D7" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>10320</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14.70666666666669</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>182.2834</v>
-      </c>
-      <c r="G8" t="n">
-        <v>14.70500000000002</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E9" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>14.70333333333336</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D10" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E10" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F10" t="n">
-        <v>37900</v>
-      </c>
-      <c r="G10" t="n">
-        <v>14.70000000000003</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D11" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F11" t="n">
-        <v>44300</v>
-      </c>
-      <c r="G11" t="n">
-        <v>14.69666666666669</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>72920.85340000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>14.69333333333336</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14.69333333333336</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14.69000000000003</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="C15" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="D15" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>93968.7527</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14.68500000000003</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,18 +1001,21 @@
         <v>52000</v>
       </c>
       <c r="G16" t="n">
+        <v>14.75333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>14.68000000000003</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -991,18 +1039,21 @@
         <v>111200</v>
       </c>
       <c r="G17" t="n">
+        <v>14.73999999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>14.67333333333336</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1026,18 +1077,21 @@
         <v>302762.622</v>
       </c>
       <c r="G18" t="n">
+        <v>14.72666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>14.6666666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1061,18 +1115,21 @@
         <v>6786</v>
       </c>
       <c r="G19" t="n">
+        <v>14.71333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>14.6616666666667</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,18 +1153,25 @@
         <v>1760.282</v>
       </c>
       <c r="G20" t="n">
+        <v>14.69999999999999</v>
+      </c>
+      <c r="H20" t="n">
         <v>14.6566666666667</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1131,18 +1195,29 @@
         <v>12.8245</v>
       </c>
       <c r="G21" t="n">
+        <v>14.69333333333332</v>
+      </c>
+      <c r="H21" t="n">
         <v>14.65500000000003</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1166,18 +1241,29 @@
         <v>98400</v>
       </c>
       <c r="G22" t="n">
+        <v>14.67333333333332</v>
+      </c>
+      <c r="H22" t="n">
         <v>14.65333333333337</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L22" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,18 +1287,21 @@
         <v>11900</v>
       </c>
       <c r="G23" t="n">
+        <v>14.66666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>14.6516666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,18 +1325,25 @@
         <v>196355.6785</v>
       </c>
       <c r="G24" t="n">
+        <v>14.65999999999999</v>
+      </c>
+      <c r="H24" t="n">
         <v>14.65000000000003</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1271,18 +1367,29 @@
         <v>128905.462</v>
       </c>
       <c r="G25" t="n">
+        <v>14.64666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>14.64833333333337</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1306,18 +1413,29 @@
         <v>41282.4228</v>
       </c>
       <c r="G26" t="n">
+        <v>14.64666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>14.64833333333337</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1341,18 +1459,29 @@
         <v>147671.612</v>
       </c>
       <c r="G27" t="n">
+        <v>14.63999999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>14.65000000000003</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1376,18 +1505,27 @@
         <v>3650</v>
       </c>
       <c r="G28" t="n">
+        <v>14.63333333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>14.6516666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1411,18 +1549,27 @@
         <v>17800</v>
       </c>
       <c r="G29" t="n">
+        <v>14.63999999999999</v>
+      </c>
+      <c r="H29" t="n">
         <v>14.65500000000003</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1446,18 +1593,27 @@
         <v>6000</v>
       </c>
       <c r="G30" t="n">
+        <v>14.64666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>14.65833333333336</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,18 +1637,27 @@
         <v>6799.1876</v>
       </c>
       <c r="G31" t="n">
+        <v>14.65333333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>14.66000000000003</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1516,18 +1681,27 @@
         <v>22396.5752</v>
       </c>
       <c r="G32" t="n">
+        <v>14.66666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>14.66333333333336</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1551,18 +1725,27 @@
         <v>31000</v>
       </c>
       <c r="G33" t="n">
+        <v>14.68666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>14.66833333333336</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,18 +1769,27 @@
         <v>20000</v>
       </c>
       <c r="G34" t="n">
+        <v>14.70666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>14.6766666666667</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1621,18 +1813,27 @@
         <v>634.5637</v>
       </c>
       <c r="G35" t="n">
+        <v>14.72666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>14.68333333333336</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1656,18 +1857,27 @@
         <v>79026.38770000001</v>
       </c>
       <c r="G36" t="n">
+        <v>14.73999999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>14.69000000000003</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1691,18 +1901,27 @@
         <v>101218.6333</v>
       </c>
       <c r="G37" t="n">
+        <v>14.76666666666666</v>
+      </c>
+      <c r="H37" t="n">
         <v>14.69666666666669</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1726,18 +1945,27 @@
         <v>93009.0585</v>
       </c>
       <c r="G38" t="n">
+        <v>14.79333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>14.70333333333336</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +1989,27 @@
         <v>50900</v>
       </c>
       <c r="G39" t="n">
+        <v>14.81999999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>14.70833333333336</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +2033,27 @@
         <v>400000</v>
       </c>
       <c r="G40" t="n">
+        <v>14.86666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>14.72000000000003</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +2077,27 @@
         <v>483</v>
       </c>
       <c r="G41" t="n">
+        <v>14.88666666666666</v>
+      </c>
+      <c r="H41" t="n">
         <v>14.72666666666669</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +2121,27 @@
         <v>29111.612</v>
       </c>
       <c r="G42" t="n">
+        <v>14.90666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>14.73500000000003</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2165,27 @@
         <v>99393.4566</v>
       </c>
       <c r="G43" t="n">
+        <v>14.92666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>14.74166666666669</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2209,27 @@
         <v>6000</v>
       </c>
       <c r="G44" t="n">
+        <v>14.93333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>14.74500000000003</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2253,27 @@
         <v>150000</v>
       </c>
       <c r="G45" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="H45" t="n">
         <v>14.74833333333336</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2297,27 @@
         <v>676.7549</v>
       </c>
       <c r="G46" t="n">
+        <v>14.96666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>14.75500000000002</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2341,27 @@
         <v>3537.8145</v>
       </c>
       <c r="G47" t="n">
+        <v>14.98666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>14.76166666666669</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2385,27 @@
         <v>1450.7056</v>
       </c>
       <c r="G48" t="n">
+        <v>14.99999999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>14.76833333333336</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2429,27 @@
         <v>30938.8157</v>
       </c>
       <c r="G49" t="n">
+        <v>15.00666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>14.77333333333336</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2473,27 @@
         <v>1235.7186</v>
       </c>
       <c r="G50" t="n">
+        <v>15.01333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>14.78000000000002</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2517,27 @@
         <v>506.7894</v>
       </c>
       <c r="G51" t="n">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>14.79166666666669</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2561,27 @@
         <v>105451.5789</v>
       </c>
       <c r="G52" t="n">
+        <v>15.04666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>14.80333333333336</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2605,27 @@
         <v>11881</v>
       </c>
       <c r="G53" t="n">
+        <v>15.06666666666666</v>
+      </c>
+      <c r="H53" t="n">
         <v>14.81666666666669</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,19 +2649,28 @@
         <v>37000</v>
       </c>
       <c r="G54" t="n">
+        <v>15.08666666666666</v>
+      </c>
+      <c r="H54" t="n">
         <v>14.83000000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
+      <c r="L54" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>1.042945205479452</v>
       </c>
     </row>
     <row r="55">
@@ -2321,18 +2693,21 @@
         <v>50614</v>
       </c>
       <c r="G55" t="n">
+        <v>15.09999999999999</v>
+      </c>
+      <c r="H55" t="n">
         <v>14.84500000000002</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2731,21 @@
         <v>5987</v>
       </c>
       <c r="G56" t="n">
+        <v>15.11333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>14.85500000000002</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2769,21 @@
         <v>6996.3341</v>
       </c>
       <c r="G57" t="n">
+        <v>15.12666666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>14.86333333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2807,21 @@
         <v>4366.7427</v>
       </c>
       <c r="G58" t="n">
+        <v>15.13333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>14.86833333333336</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2845,21 @@
         <v>3860.4758</v>
       </c>
       <c r="G59" t="n">
+        <v>15.14666666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>14.87333333333336</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2883,21 @@
         <v>91260.0361</v>
       </c>
       <c r="G60" t="n">
+        <v>15.15999999999999</v>
+      </c>
+      <c r="H60" t="n">
         <v>14.87833333333336</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2921,21 @@
         <v>10100</v>
       </c>
       <c r="G61" t="n">
+        <v>15.16666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>14.88500000000003</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2959,21 @@
         <v>70000</v>
       </c>
       <c r="G62" t="n">
+        <v>15.16666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>14.89000000000003</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2997,21 @@
         <v>2512.6294</v>
       </c>
       <c r="G63" t="n">
+        <v>15.16666666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>14.89500000000003</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +3035,21 @@
         <v>14800</v>
       </c>
       <c r="G64" t="n">
+        <v>15.17333333333332</v>
+      </c>
+      <c r="H64" t="n">
         <v>14.90000000000003</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +3073,21 @@
         <v>8175</v>
       </c>
       <c r="G65" t="n">
+        <v>15.17999999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>14.90500000000003</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3111,21 @@
         <v>80529</v>
       </c>
       <c r="G66" t="n">
+        <v>15.17999999999999</v>
+      </c>
+      <c r="H66" t="n">
         <v>14.9116666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +3149,21 @@
         <v>28310</v>
       </c>
       <c r="G67" t="n">
+        <v>15.17999999999999</v>
+      </c>
+      <c r="H67" t="n">
         <v>14.9166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3187,21 @@
         <v>135201.2544</v>
       </c>
       <c r="G68" t="n">
+        <v>15.13999999999999</v>
+      </c>
+      <c r="H68" t="n">
         <v>14.9166666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3225,21 @@
         <v>16622.8326</v>
       </c>
       <c r="G69" t="n">
+        <v>15.10666666666665</v>
+      </c>
+      <c r="H69" t="n">
         <v>14.91833333333337</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3263,21 @@
         <v>56940</v>
       </c>
       <c r="G70" t="n">
+        <v>15.07333333333332</v>
+      </c>
+      <c r="H70" t="n">
         <v>14.9216666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3301,21 @@
         <v>75644</v>
       </c>
       <c r="G71" t="n">
+        <v>15.05333333333332</v>
+      </c>
+      <c r="H71" t="n">
         <v>14.92500000000003</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3339,21 @@
         <v>4319</v>
       </c>
       <c r="G72" t="n">
+        <v>15.03333333333332</v>
+      </c>
+      <c r="H72" t="n">
         <v>14.9266666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3377,21 @@
         <v>5000</v>
       </c>
       <c r="G73" t="n">
+        <v>15.01999999999999</v>
+      </c>
+      <c r="H73" t="n">
         <v>14.92833333333336</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3415,21 @@
         <v>10000</v>
       </c>
       <c r="G74" t="n">
+        <v>15.00666666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>14.9316666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3453,21 @@
         <v>10500</v>
       </c>
       <c r="G75" t="n">
+        <v>14.99333333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>14.93500000000003</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3491,21 @@
         <v>10816.5018</v>
       </c>
       <c r="G76" t="n">
+        <v>14.97999999999999</v>
+      </c>
+      <c r="H76" t="n">
         <v>14.94166666666669</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3529,21 @@
         <v>25500</v>
       </c>
       <c r="G77" t="n">
+        <v>14.96666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>14.94666666666669</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3567,21 @@
         <v>56036</v>
       </c>
       <c r="G78" t="n">
+        <v>14.95333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>14.95166666666669</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3605,21 @@
         <v>62730.3311</v>
       </c>
       <c r="G79" t="n">
+        <v>14.94666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>14.95833333333336</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3643,21 @@
         <v>4979.8675</v>
       </c>
       <c r="G80" t="n">
+        <v>14.94666666666666</v>
+      </c>
+      <c r="H80" t="n">
         <v>14.96666666666669</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3681,21 @@
         <v>28900.265</v>
       </c>
       <c r="G81" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="H81" t="n">
         <v>14.97333333333336</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3719,21 @@
         <v>7279</v>
       </c>
       <c r="G82" t="n">
+        <v>14.93333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>14.98166666666669</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3757,21 @@
         <v>55200</v>
       </c>
       <c r="G83" t="n">
+        <v>14.95333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>14.98833333333336</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3795,21 @@
         <v>53203</v>
       </c>
       <c r="G84" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="H84" t="n">
         <v>14.99833333333336</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +3833,21 @@
         <v>89700</v>
       </c>
       <c r="G85" t="n">
+        <v>14.98666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>15.00666666666669</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3871,21 @@
         <v>76073</v>
       </c>
       <c r="G86" t="n">
+        <v>14.99999999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>15.01333333333336</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +3909,21 @@
         <v>61517</v>
       </c>
       <c r="G87" t="n">
+        <v>14.99999999999999</v>
+      </c>
+      <c r="H87" t="n">
         <v>15.01666666666669</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +3947,21 @@
         <v>40022</v>
       </c>
       <c r="G88" t="n">
+        <v>14.99999999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>15.02000000000002</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +3985,21 @@
         <v>57069.6826</v>
       </c>
       <c r="G89" t="n">
+        <v>14.99333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>15.02000000000002</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +4023,21 @@
         <v>3298</v>
       </c>
       <c r="G90" t="n">
+        <v>14.99333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>15.02166666666669</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +4061,21 @@
         <v>1479.8131</v>
       </c>
       <c r="G91" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="H91" t="n">
         <v>15.02333333333336</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +4099,21 @@
         <v>130583.7555</v>
       </c>
       <c r="G92" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="H92" t="n">
         <v>15.02500000000002</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4137,21 @@
         <v>94008</v>
       </c>
       <c r="G93" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="H93" t="n">
         <v>15.02500000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4175,21 @@
         <v>31100.1236</v>
       </c>
       <c r="G94" t="n">
+        <v>14.97333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>15.02500000000002</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4213,21 @@
         <v>10000</v>
       </c>
       <c r="G95" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="H95" t="n">
         <v>15.02500000000002</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4251,21 @@
         <v>1254</v>
       </c>
       <c r="G96" t="n">
+        <v>14.94666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>15.02500000000002</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4289,21 @@
         <v>24231</v>
       </c>
       <c r="G97" t="n">
+        <v>14.93333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>15.02333333333336</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4327,21 @@
         <v>291221.9826116129</v>
       </c>
       <c r="G98" t="n">
+        <v>14.93333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>15.02333333333336</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4365,21 @@
         <v>217872.9591</v>
       </c>
       <c r="G99" t="n">
+        <v>14.91333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>15.02166666666669</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4403,21 @@
         <v>18375</v>
       </c>
       <c r="G100" t="n">
+        <v>14.91333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>15.01833333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4441,21 @@
         <v>26818.193</v>
       </c>
       <c r="G101" t="n">
+        <v>14.90666666666667</v>
+      </c>
+      <c r="H101" t="n">
         <v>15.01833333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4479,21 @@
         <v>5389</v>
       </c>
       <c r="G102" t="n">
+        <v>14.91333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>15.01833333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4517,21 @@
         <v>10</v>
       </c>
       <c r="G103" t="n">
+        <v>14.93333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>15.02166666666669</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4555,21 @@
         <v>2618.753</v>
       </c>
       <c r="G104" t="n">
+        <v>14.94666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>15.02333333333336</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4593,21 @@
         <v>2750.535</v>
       </c>
       <c r="G105" t="n">
+        <v>14.95333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>15.02500000000002</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4631,21 @@
         <v>2462.395</v>
       </c>
       <c r="G106" t="n">
+        <v>14.96666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>15.02333333333336</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4669,21 @@
         <v>2645</v>
       </c>
       <c r="G107" t="n">
+        <v>14.97333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>15.02166666666669</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4707,21 @@
         <v>4659.998</v>
       </c>
       <c r="G108" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="H108" t="n">
         <v>15.02000000000002</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4745,21 @@
         <v>36389</v>
       </c>
       <c r="G109" t="n">
+        <v>14.98666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>15.02000000000002</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4783,21 @@
         <v>10000</v>
       </c>
       <c r="G110" t="n">
+        <v>14.99333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>15.02000000000002</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4821,21 @@
         <v>9353.0905</v>
       </c>
       <c r="G111" t="n">
+        <v>15.00666666666666</v>
+      </c>
+      <c r="H111" t="n">
         <v>15.01833333333335</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4859,21 @@
         <v>243268.1868</v>
       </c>
       <c r="G112" t="n">
+        <v>15.03999999999999</v>
+      </c>
+      <c r="H112" t="n">
         <v>15.02166666666669</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4897,21 @@
         <v>24010</v>
       </c>
       <c r="G113" t="n">
+        <v>15.05333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>15.02000000000002</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +4935,21 @@
         <v>12510</v>
       </c>
       <c r="G114" t="n">
+        <v>15.07999999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>15.02000000000002</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +4973,21 @@
         <v>12500</v>
       </c>
       <c r="G115" t="n">
+        <v>15.09999999999999</v>
+      </c>
+      <c r="H115" t="n">
         <v>15.01833333333335</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +5011,21 @@
         <v>480987.0384</v>
       </c>
       <c r="G116" t="n">
+        <v>15.10666666666666</v>
+      </c>
+      <c r="H116" t="n">
         <v>15.01666666666669</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5049,21 @@
         <v>74114.0938</v>
       </c>
       <c r="G117" t="n">
+        <v>15.11333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>15.01500000000002</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5087,21 @@
         <v>31000</v>
       </c>
       <c r="G118" t="n">
+        <v>15.10666666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>15.01500000000002</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5125,21 @@
         <v>96</v>
       </c>
       <c r="G119" t="n">
+        <v>15.11999999999999</v>
+      </c>
+      <c r="H119" t="n">
         <v>15.01666666666669</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5163,21 @@
         <v>28106.1</v>
       </c>
       <c r="G120" t="n">
+        <v>15.12666666666666</v>
+      </c>
+      <c r="H120" t="n">
         <v>15.01666666666669</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5201,21 @@
         <v>47051.2216</v>
       </c>
       <c r="G121" t="n">
+        <v>15.13333333333333</v>
+      </c>
+      <c r="H121" t="n">
         <v>15.01500000000002</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5239,21 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
+        <v>15.14666666666666</v>
+      </c>
+      <c r="H122" t="n">
         <v>15.01666666666669</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5277,21 @@
         <v>116564.2087</v>
       </c>
       <c r="G123" t="n">
+        <v>15.14666666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>15.01500000000002</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5315,21 @@
         <v>97438.06660000001</v>
       </c>
       <c r="G124" t="n">
+        <v>15.14666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>15.01333333333335</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5353,21 @@
         <v>85</v>
       </c>
       <c r="G125" t="n">
+        <v>15.14666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>15.01166666666669</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5391,21 @@
         <v>12798.2553</v>
       </c>
       <c r="G126" t="n">
+        <v>15.13333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>15.00666666666669</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5429,21 @@
         <v>214000</v>
       </c>
       <c r="G127" t="n">
+        <v>15.09333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>15.00000000000002</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5467,21 @@
         <v>55000</v>
       </c>
       <c r="G128" t="n">
+        <v>15.06666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>15.00166666666668</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5505,21 @@
         <v>1307</v>
       </c>
       <c r="G129" t="n">
+        <v>15.03999999999999</v>
+      </c>
+      <c r="H129" t="n">
         <v>15.00333333333335</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5543,21 @@
         <v>14000</v>
       </c>
       <c r="G130" t="n">
+        <v>15.01333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>15.00333333333335</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5581,21 @@
         <v>5158.1518</v>
       </c>
       <c r="G131" t="n">
+        <v>14.99333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>15.00166666666668</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5619,21 @@
         <v>138276.924</v>
       </c>
       <c r="G132" t="n">
+        <v>14.97333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>15.00000000000002</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5657,21 @@
         <v>44806.9269</v>
       </c>
       <c r="G133" t="n">
+        <v>14.95333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>14.99833333333335</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5695,21 @@
         <v>5193.0731</v>
       </c>
       <c r="G134" t="n">
+        <v>14.92666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>14.99666666666668</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5733,21 @@
         <v>487.5487</v>
       </c>
       <c r="G135" t="n">
+        <v>14.90666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>14.99500000000001</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5771,21 @@
         <v>120000</v>
       </c>
       <c r="G136" t="n">
+        <v>14.88666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>14.99166666666668</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +5809,21 @@
         <v>56287</v>
       </c>
       <c r="G137" t="n">
+        <v>14.85333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>14.98833333333335</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +5847,21 @@
         <v>50000</v>
       </c>
       <c r="G138" t="n">
+        <v>14.82666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>14.98333333333335</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +5885,21 @@
         <v>6587</v>
       </c>
       <c r="G139" t="n">
+        <v>14.80666666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>14.97833333333335</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +5923,21 @@
         <v>1372.8138</v>
       </c>
       <c r="G140" t="n">
+        <v>14.78666666666667</v>
+      </c>
+      <c r="H140" t="n">
         <v>14.97166666666668</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +5961,21 @@
         <v>1729</v>
       </c>
       <c r="G141" t="n">
+        <v>14.77333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>14.96500000000002</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +5999,21 @@
         <v>73000</v>
       </c>
       <c r="G142" t="n">
+        <v>14.76666666666666</v>
+      </c>
+      <c r="H142" t="n">
         <v>14.95833333333335</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +6037,21 @@
         <v>81456.031</v>
       </c>
       <c r="G143" t="n">
+        <v>14.75999999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>14.95333333333335</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +6075,21 @@
         <v>99923.1162</v>
       </c>
       <c r="G144" t="n">
+        <v>14.75999999999999</v>
+      </c>
+      <c r="H144" t="n">
         <v>14.94833333333335</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +6113,21 @@
         <v>215450.4096</v>
       </c>
       <c r="G145" t="n">
+        <v>14.76666666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>14.94833333333335</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +6151,21 @@
         <v>20000</v>
       </c>
       <c r="G146" t="n">
+        <v>14.77999999999999</v>
+      </c>
+      <c r="H146" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6189,21 @@
         <v>60600</v>
       </c>
       <c r="G147" t="n">
+        <v>14.77333333333332</v>
+      </c>
+      <c r="H147" t="n">
         <v>14.94333333333335</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6227,21 @@
         <v>705281.9274625806</v>
       </c>
       <c r="G148" t="n">
+        <v>14.77999999999999</v>
+      </c>
+      <c r="H148" t="n">
         <v>14.94333333333335</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6265,21 @@
         <v>15617.069</v>
       </c>
       <c r="G149" t="n">
+        <v>14.78666666666666</v>
+      </c>
+      <c r="H149" t="n">
         <v>14.94500000000002</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6303,21 @@
         <v>2089.3957</v>
       </c>
       <c r="G150" t="n">
+        <v>14.79999999999999</v>
+      </c>
+      <c r="H150" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6341,21 @@
         <v>60000</v>
       </c>
       <c r="G151" t="n">
+        <v>14.80666666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>14.94833333333335</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6379,21 @@
         <v>2543.23</v>
       </c>
       <c r="G152" t="n">
+        <v>14.81999999999999</v>
+      </c>
+      <c r="H152" t="n">
         <v>14.94833333333335</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6417,21 @@
         <v>114910</v>
       </c>
       <c r="G153" t="n">
+        <v>14.83333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6455,21 @@
         <v>15342.565</v>
       </c>
       <c r="G154" t="n">
+        <v>14.83999999999999</v>
+      </c>
+      <c r="H154" t="n">
         <v>14.94500000000002</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6493,21 @@
         <v>10</v>
       </c>
       <c r="G155" t="n">
+        <v>14.85999999999999</v>
+      </c>
+      <c r="H155" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6531,21 @@
         <v>5623</v>
       </c>
       <c r="G156" t="n">
+        <v>14.86666666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>14.94500000000002</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6569,21 @@
         <v>85</v>
       </c>
       <c r="G157" t="n">
+        <v>14.88666666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6607,21 @@
         <v>39740</v>
       </c>
       <c r="G158" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H158" t="n">
         <v>14.94500000000002</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6645,21 @@
         <v>10000</v>
       </c>
       <c r="G159" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H159" t="n">
         <v>14.94500000000002</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6683,21 @@
         <v>24</v>
       </c>
       <c r="G160" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H160" t="n">
         <v>14.94500000000002</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6721,21 @@
         <v>11215.9234</v>
       </c>
       <c r="G161" t="n">
+        <v>14.90666666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +6759,21 @@
         <v>200</v>
       </c>
       <c r="G162" t="n">
+        <v>14.93333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>14.94833333333335</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +6797,21 @@
         <v>10927.311</v>
       </c>
       <c r="G163" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="H163" t="n">
         <v>14.94500000000002</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +6835,21 @@
         <v>15000</v>
       </c>
       <c r="G164" t="n">
+        <v>14.94666666666666</v>
+      </c>
+      <c r="H164" t="n">
         <v>14.94500000000002</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +6873,21 @@
         <v>10</v>
       </c>
       <c r="G165" t="n">
+        <v>14.95333333333333</v>
+      </c>
+      <c r="H165" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +6911,21 @@
         <v>147584.8925</v>
       </c>
       <c r="G166" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="H166" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +6949,21 @@
         <v>50875</v>
       </c>
       <c r="G167" t="n">
+        <v>14.96666666666666</v>
+      </c>
+      <c r="H167" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +6987,21 @@
         <v>20818.4311</v>
       </c>
       <c r="G168" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="H168" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +7025,21 @@
         <v>1000</v>
       </c>
       <c r="G169" t="n">
+        <v>14.99333333333333</v>
+      </c>
+      <c r="H169" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +7063,21 @@
         <v>32370</v>
       </c>
       <c r="G170" t="n">
+        <v>14.99333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>14.94666666666668</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +7101,21 @@
         <v>16797</v>
       </c>
       <c r="G171" t="n">
+        <v>15.00666666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>14.94500000000002</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,18 +7139,21 @@
         <v>143134.0833</v>
       </c>
       <c r="G172" t="n">
+        <v>14.99999999999999</v>
+      </c>
+      <c r="H172" t="n">
         <v>14.93666666666669</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6451,18 +7177,21 @@
         <v>8621738.380799999</v>
       </c>
       <c r="G173" t="n">
+        <v>15.00666666666666</v>
+      </c>
+      <c r="H173" t="n">
         <v>14.93333333333335</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6486,18 +7215,21 @@
         <v>4967213.787</v>
       </c>
       <c r="G174" t="n">
+        <v>15.01333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>14.92833333333335</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6521,18 +7253,21 @@
         <v>10</v>
       </c>
       <c r="G175" t="n">
+        <v>15.01999999999999</v>
+      </c>
+      <c r="H175" t="n">
         <v>14.92500000000002</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6556,18 +7291,21 @@
         <v>61759.9973</v>
       </c>
       <c r="G176" t="n">
+        <v>15.02666666666666</v>
+      </c>
+      <c r="H176" t="n">
         <v>14.92666666666669</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6591,18 +7329,21 @@
         <v>4979.042</v>
       </c>
       <c r="G177" t="n">
+        <v>15.01999999999999</v>
+      </c>
+      <c r="H177" t="n">
         <v>14.92500000000002</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6626,18 +7367,21 @@
         <v>14</v>
       </c>
       <c r="G178" t="n">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>14.92666666666669</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6661,18 +7405,21 @@
         <v>2321.783</v>
       </c>
       <c r="G179" t="n">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>14.92333333333335</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6696,18 +7443,21 @@
         <v>22</v>
       </c>
       <c r="G180" t="n">
+        <v>15.03999999999999</v>
+      </c>
+      <c r="H180" t="n">
         <v>14.92500000000002</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6731,18 +7481,21 @@
         <v>143247.8174</v>
       </c>
       <c r="G181" t="n">
+        <v>15.03999999999999</v>
+      </c>
+      <c r="H181" t="n">
         <v>14.92333333333335</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6766,18 +7519,21 @@
         <v>2000</v>
       </c>
       <c r="G182" t="n">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>14.91833333333335</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6801,18 +7557,21 @@
         <v>18475</v>
       </c>
       <c r="G183" t="n">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>14.91833333333335</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6836,18 +7595,21 @@
         <v>80000</v>
       </c>
       <c r="G184" t="n">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H184" t="n">
         <v>14.91833333333335</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,18 +7633,21 @@
         <v>85575.50930000001</v>
       </c>
       <c r="G185" t="n">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>14.91833333333335</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6906,18 +7671,21 @@
         <v>26700</v>
       </c>
       <c r="G186" t="n">
+        <v>15.03333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>14.92000000000002</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6941,18 +7709,21 @@
         <v>6199</v>
       </c>
       <c r="G187" t="n">
+        <v>15.05333333333332</v>
+      </c>
+      <c r="H187" t="n">
         <v>14.92666666666669</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6976,18 +7747,21 @@
         <v>55597.9605</v>
       </c>
       <c r="G188" t="n">
+        <v>15.06666666666666</v>
+      </c>
+      <c r="H188" t="n">
         <v>14.93333333333335</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7011,18 +7785,21 @@
         <v>41881.9868</v>
       </c>
       <c r="G189" t="n">
+        <v>15.07999999999999</v>
+      </c>
+      <c r="H189" t="n">
         <v>14.93833333333336</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7046,18 +7823,21 @@
         <v>71955.5131</v>
       </c>
       <c r="G190" t="n">
+        <v>15.08666666666666</v>
+      </c>
+      <c r="H190" t="n">
         <v>14.94333333333336</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7081,18 +7861,21 @@
         <v>10</v>
       </c>
       <c r="G191" t="n">
+        <v>15.09333333333332</v>
+      </c>
+      <c r="H191" t="n">
         <v>14.95166666666669</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7116,18 +7899,21 @@
         <v>18350</v>
       </c>
       <c r="G192" t="n">
+        <v>15.09999999999999</v>
+      </c>
+      <c r="H192" t="n">
         <v>14.95666666666669</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7151,18 +7937,21 @@
         <v>2080</v>
       </c>
       <c r="G193" t="n">
+        <v>15.09333333333332</v>
+      </c>
+      <c r="H193" t="n">
         <v>14.96166666666669</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7186,18 +7975,21 @@
         <v>10</v>
       </c>
       <c r="G194" t="n">
+        <v>15.10666666666666</v>
+      </c>
+      <c r="H194" t="n">
         <v>14.96833333333336</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7221,18 +8013,21 @@
         <v>20718.8815</v>
       </c>
       <c r="G195" t="n">
+        <v>15.10666666666666</v>
+      </c>
+      <c r="H195" t="n">
         <v>14.97500000000003</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7256,18 +8051,21 @@
         <v>8244.2763</v>
       </c>
       <c r="G196" t="n">
+        <v>15.11999999999999</v>
+      </c>
+      <c r="H196" t="n">
         <v>14.9816666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7291,18 +8089,21 @@
         <v>530000</v>
       </c>
       <c r="G197" t="n">
+        <v>15.13333333333332</v>
+      </c>
+      <c r="H197" t="n">
         <v>14.98833333333336</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7326,18 +8127,21 @@
         <v>6000</v>
       </c>
       <c r="G198" t="n">
+        <v>15.13999999999999</v>
+      </c>
+      <c r="H198" t="n">
         <v>14.9966666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7361,18 +8165,21 @@
         <v>8000</v>
       </c>
       <c r="G199" t="n">
+        <v>15.14666666666665</v>
+      </c>
+      <c r="H199" t="n">
         <v>15.00333333333336</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7396,18 +8203,21 @@
         <v>40000</v>
       </c>
       <c r="G200" t="n">
+        <v>15.15333333333332</v>
+      </c>
+      <c r="H200" t="n">
         <v>15.01000000000003</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7431,18 +8241,21 @@
         <v>13026.8421</v>
       </c>
       <c r="G201" t="n">
+        <v>15.15999999999999</v>
+      </c>
+      <c r="H201" t="n">
         <v>15.0166666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7466,18 +8279,21 @@
         <v>12.8244</v>
       </c>
       <c r="G202" t="n">
+        <v>15.15999999999999</v>
+      </c>
+      <c r="H202" t="n">
         <v>15.02500000000003</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,18 +8317,21 @@
         <v>37900</v>
       </c>
       <c r="G203" t="n">
+        <v>15.14666666666665</v>
+      </c>
+      <c r="H203" t="n">
         <v>15.03000000000003</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7536,18 +8355,21 @@
         <v>18.4444</v>
       </c>
       <c r="G204" t="n">
+        <v>15.14666666666665</v>
+      </c>
+      <c r="H204" t="n">
         <v>15.03500000000003</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7571,18 +8393,21 @@
         <v>4958.344</v>
       </c>
       <c r="G205" t="n">
+        <v>15.13999999999999</v>
+      </c>
+      <c r="H205" t="n">
         <v>15.0366666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7606,18 +8431,21 @@
         <v>1079</v>
       </c>
       <c r="G206" t="n">
+        <v>15.12666666666665</v>
+      </c>
+      <c r="H206" t="n">
         <v>15.03833333333336</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7641,18 +8469,21 @@
         <v>3676</v>
       </c>
       <c r="G207" t="n">
+        <v>15.12666666666665</v>
+      </c>
+      <c r="H207" t="n">
         <v>15.04500000000003</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7676,18 +8507,21 @@
         <v>0.6293</v>
       </c>
       <c r="G208" t="n">
+        <v>15.12666666666665</v>
+      </c>
+      <c r="H208" t="n">
         <v>15.04833333333336</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,18 +8545,21 @@
         <v>33428.3159</v>
       </c>
       <c r="G209" t="n">
+        <v>15.11999999999999</v>
+      </c>
+      <c r="H209" t="n">
         <v>15.0516666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7746,18 +8583,21 @@
         <v>45933.5657</v>
       </c>
       <c r="G210" t="n">
+        <v>15.11999999999999</v>
+      </c>
+      <c r="H210" t="n">
         <v>15.05500000000003</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7781,18 +8621,21 @@
         <v>70578.4638</v>
       </c>
       <c r="G211" t="n">
+        <v>15.11333333333332</v>
+      </c>
+      <c r="H211" t="n">
         <v>15.05833333333337</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7816,18 +8659,21 @@
         <v>22785.496</v>
       </c>
       <c r="G212" t="n">
+        <v>15.11333333333332</v>
+      </c>
+      <c r="H212" t="n">
         <v>15.0616666666667</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7851,18 +8697,21 @@
         <v>4771.287</v>
       </c>
       <c r="G213" t="n">
+        <v>15.11333333333332</v>
+      </c>
+      <c r="H213" t="n">
         <v>15.0666666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7886,18 +8735,21 @@
         <v>1874.613</v>
       </c>
       <c r="G214" t="n">
+        <v>15.11333333333332</v>
+      </c>
+      <c r="H214" t="n">
         <v>15.0716666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7921,18 +8773,21 @@
         <v>1883.855</v>
       </c>
       <c r="G215" t="n">
+        <v>15.11333333333332</v>
+      </c>
+      <c r="H215" t="n">
         <v>15.07333333333337</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7956,18 +8811,21 @@
         <v>42853.2331</v>
       </c>
       <c r="G216" t="n">
+        <v>15.11333333333332</v>
+      </c>
+      <c r="H216" t="n">
         <v>15.07833333333337</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7991,18 +8849,21 @@
         <v>30891.9811</v>
       </c>
       <c r="G217" t="n">
+        <v>15.10666666666665</v>
+      </c>
+      <c r="H217" t="n">
         <v>15.08000000000004</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8026,18 +8887,21 @@
         <v>18900</v>
       </c>
       <c r="G218" t="n">
+        <v>15.11999999999999</v>
+      </c>
+      <c r="H218" t="n">
         <v>15.08500000000004</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8061,18 +8925,21 @@
         <v>10</v>
       </c>
       <c r="G219" t="n">
+        <v>15.11333333333332</v>
+      </c>
+      <c r="H219" t="n">
         <v>15.08833333333337</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8096,18 +8963,21 @@
         <v>1888.7323</v>
       </c>
       <c r="G220" t="n">
+        <v>15.10666666666665</v>
+      </c>
+      <c r="H220" t="n">
         <v>15.08833333333337</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8131,18 +9001,21 @@
         <v>2600</v>
       </c>
       <c r="G221" t="n">
+        <v>15.09999999999999</v>
+      </c>
+      <c r="H221" t="n">
         <v>15.08666666666671</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8166,18 +9039,21 @@
         <v>293776.7832</v>
       </c>
       <c r="G222" t="n">
+        <v>15.09333333333332</v>
+      </c>
+      <c r="H222" t="n">
         <v>15.08500000000004</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8201,18 +9077,21 @@
         <v>230576.4398</v>
       </c>
       <c r="G223" t="n">
+        <v>15.08666666666666</v>
+      </c>
+      <c r="H223" t="n">
         <v>15.08500000000004</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8236,18 +9115,21 @@
         <v>35.885</v>
       </c>
       <c r="G224" t="n">
+        <v>15.07333333333332</v>
+      </c>
+      <c r="H224" t="n">
         <v>15.08333333333337</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8271,18 +9153,21 @@
         <v>12.0212</v>
       </c>
       <c r="G225" t="n">
+        <v>15.05999999999999</v>
+      </c>
+      <c r="H225" t="n">
         <v>15.0816666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8306,18 +9191,21 @@
         <v>31200</v>
       </c>
       <c r="G226" t="n">
+        <v>15.05333333333332</v>
+      </c>
+      <c r="H226" t="n">
         <v>15.0816666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8341,18 +9229,21 @@
         <v>6664.6589</v>
       </c>
       <c r="G227" t="n">
+        <v>15.04666666666666</v>
+      </c>
+      <c r="H227" t="n">
         <v>15.0816666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8376,18 +9267,21 @@
         <v>163130.7411</v>
       </c>
       <c r="G228" t="n">
+        <v>15.03999999999999</v>
+      </c>
+      <c r="H228" t="n">
         <v>15.0816666666667</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8411,18 +9305,21 @@
         <v>49900</v>
       </c>
       <c r="G229" t="n">
+        <v>15.02666666666666</v>
+      </c>
+      <c r="H229" t="n">
         <v>15.08000000000004</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8446,18 +9343,21 @@
         <v>39900</v>
       </c>
       <c r="G230" t="n">
+        <v>15.01999999999999</v>
+      </c>
+      <c r="H230" t="n">
         <v>15.08000000000004</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8481,18 +9381,21 @@
         <v>17900</v>
       </c>
       <c r="G231" t="n">
+        <v>15.00666666666666</v>
+      </c>
+      <c r="H231" t="n">
         <v>15.07833333333337</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8516,18 +9419,21 @@
         <v>32800</v>
       </c>
       <c r="G232" t="n">
+        <v>14.99333333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>15.07833333333337</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8551,18 +9457,21 @@
         <v>70000</v>
       </c>
       <c r="G233" t="n">
+        <v>14.97333333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>15.0766666666667</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8586,18 +9495,21 @@
         <v>929.8665999999999</v>
       </c>
       <c r="G234" t="n">
+        <v>14.96666666666666</v>
+      </c>
+      <c r="H234" t="n">
         <v>15.0766666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8621,18 +9533,21 @@
         <v>20000</v>
       </c>
       <c r="G235" t="n">
+        <v>14.95333333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>15.0716666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8656,18 +9571,21 @@
         <v>74200</v>
       </c>
       <c r="G236" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="H236" t="n">
         <v>15.06500000000003</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8691,18 +9609,21 @@
         <v>66869.12149999999</v>
       </c>
       <c r="G237" t="n">
+        <v>14.92666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>15.0616666666667</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8726,18 +9647,21 @@
         <v>104294.3441</v>
       </c>
       <c r="G238" t="n">
+        <v>14.90666666666666</v>
+      </c>
+      <c r="H238" t="n">
         <v>15.05333333333337</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8761,18 +9685,21 @@
         <v>6689.0562</v>
       </c>
       <c r="G239" t="n">
+        <v>14.89333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>15.04833333333337</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8796,18 +9723,21 @@
         <v>144300</v>
       </c>
       <c r="G240" t="n">
+        <v>14.87333333333333</v>
+      </c>
+      <c r="H240" t="n">
         <v>15.04000000000003</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8831,18 +9761,21 @@
         <v>125</v>
       </c>
       <c r="G241" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="H241" t="n">
         <v>15.0366666666667</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8866,18 +9799,21 @@
         <v>940.0675675675676</v>
       </c>
       <c r="G242" t="n">
+        <v>14.84666666666666</v>
+      </c>
+      <c r="H242" t="n">
         <v>15.03500000000003</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8901,18 +9837,21 @@
         <v>20667.0843</v>
       </c>
       <c r="G243" t="n">
+        <v>14.82666666666666</v>
+      </c>
+      <c r="H243" t="n">
         <v>15.03000000000003</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8936,18 +9875,21 @@
         <v>25</v>
       </c>
       <c r="G244" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="H244" t="n">
         <v>15.0266666666667</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8971,18 +9913,21 @@
         <v>77686.1486</v>
       </c>
       <c r="G245" t="n">
+        <v>14.80666666666666</v>
+      </c>
+      <c r="H245" t="n">
         <v>15.02333333333337</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9006,18 +9951,21 @@
         <v>35413.6428</v>
       </c>
       <c r="G246" t="n">
+        <v>14.79333333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>15.01833333333337</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9041,18 +9989,21 @@
         <v>10</v>
       </c>
       <c r="G247" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="H247" t="n">
         <v>15.01000000000003</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9076,18 +10027,21 @@
         <v>22212.8361</v>
       </c>
       <c r="G248" t="n">
+        <v>14.77333333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>15.00333333333336</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9111,18 +10065,21 @@
         <v>14</v>
       </c>
       <c r="G249" t="n">
+        <v>14.76</v>
+      </c>
+      <c r="H249" t="n">
         <v>14.9966666666667</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9146,18 +10103,21 @@
         <v>62236.0771</v>
       </c>
       <c r="G250" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="H250" t="n">
         <v>14.98500000000003</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9181,18 +10141,21 @@
         <v>83.815</v>
       </c>
       <c r="G251" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="H251" t="n">
         <v>14.97666666666669</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9216,18 +10179,21 @@
         <v>21</v>
       </c>
       <c r="G252" t="n">
+        <v>14.73333333333333</v>
+      </c>
+      <c r="H252" t="n">
         <v>14.97000000000003</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9251,18 +10217,21 @@
         <v>11</v>
       </c>
       <c r="G253" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="H253" t="n">
         <v>14.96500000000003</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9286,18 +10255,21 @@
         <v>104570.4859</v>
       </c>
       <c r="G254" t="n">
+        <v>14.72666666666666</v>
+      </c>
+      <c r="H254" t="n">
         <v>14.95333333333336</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9321,18 +10293,21 @@
         <v>6077</v>
       </c>
       <c r="G255" t="n">
+        <v>14.71333333333333</v>
+      </c>
+      <c r="H255" t="n">
         <v>14.94166666666669</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9356,18 +10331,21 @@
         <v>12163.1798</v>
       </c>
       <c r="G256" t="n">
+        <v>14.69333333333333</v>
+      </c>
+      <c r="H256" t="n">
         <v>14.93000000000003</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9391,18 +10369,21 @@
         <v>995.8796</v>
       </c>
       <c r="G257" t="n">
+        <v>14.67333333333333</v>
+      </c>
+      <c r="H257" t="n">
         <v>14.92000000000002</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9426,18 +10407,21 @@
         <v>359.3588</v>
       </c>
       <c r="G258" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="H258" t="n">
         <v>14.91000000000003</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9461,18 +10445,21 @@
         <v>91422.4265</v>
       </c>
       <c r="G259" t="n">
+        <v>14.66</v>
+      </c>
+      <c r="H259" t="n">
         <v>14.90500000000002</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9496,18 +10483,21 @@
         <v>6090.6921</v>
       </c>
       <c r="G260" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="H260" t="n">
         <v>14.89500000000002</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9531,18 +10521,21 @@
         <v>19950</v>
       </c>
       <c r="G261" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="H261" t="n">
         <v>14.88333333333336</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9566,18 +10559,21 @@
         <v>10</v>
       </c>
       <c r="G262" t="n">
+        <v>14.60666666666666</v>
+      </c>
+      <c r="H262" t="n">
         <v>14.87166666666669</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9601,18 +10597,21 @@
         <v>2833.159</v>
       </c>
       <c r="G263" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="H263" t="n">
         <v>14.86166666666669</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9636,18 +10635,21 @@
         <v>244178</v>
       </c>
       <c r="G264" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="H264" t="n">
         <v>14.85000000000002</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9671,18 +10673,21 @@
         <v>22295.86</v>
       </c>
       <c r="G265" t="n">
+        <v>14.55333333333333</v>
+      </c>
+      <c r="H265" t="n">
         <v>14.83833333333335</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9706,18 +10711,21 @@
         <v>9984.557000000001</v>
       </c>
       <c r="G266" t="n">
+        <v>14.52666666666666</v>
+      </c>
+      <c r="H266" t="n">
         <v>14.82666666666669</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9741,18 +10749,21 @@
         <v>78049.069</v>
       </c>
       <c r="G267" t="n">
+        <v>14.50666666666666</v>
+      </c>
+      <c r="H267" t="n">
         <v>14.81500000000002</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9776,18 +10787,21 @@
         <v>28600</v>
       </c>
       <c r="G268" t="n">
+        <v>14.47333333333333</v>
+      </c>
+      <c r="H268" t="n">
         <v>14.80166666666668</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9811,18 +10825,459 @@
         <v>10310</v>
       </c>
       <c r="G269" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="H269" t="n">
         <v>14.78833333333335</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C270" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D270" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E270" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1922.985</v>
+      </c>
+      <c r="G270" t="n">
+        <v>14.45333333333333</v>
+      </c>
+      <c r="H270" t="n">
+        <v>14.77500000000001</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C271" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D271" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E271" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F271" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G271" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="H271" t="n">
+        <v>14.76166666666668</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C272" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D272" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E272" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F272" t="n">
+        <v>20</v>
+      </c>
+      <c r="G272" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="H272" t="n">
+        <v>14.75166666666668</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="L272" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C273" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D273" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E273" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F273" t="n">
+        <v>10</v>
+      </c>
+      <c r="G273" t="n">
+        <v>14.43333333333333</v>
+      </c>
+      <c r="H273" t="n">
+        <v>14.74000000000001</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L273" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C274" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D274" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E274" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F274" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G274" t="n">
+        <v>14.41333333333333</v>
+      </c>
+      <c r="H274" t="n">
+        <v>14.73000000000001</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="L274" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C275" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D275" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E275" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F275" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G275" t="n">
+        <v>14.42</v>
+      </c>
+      <c r="H275" t="n">
+        <v>14.72166666666668</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L275" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C276" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D276" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E276" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F276" t="n">
+        <v>28238.6634</v>
+      </c>
+      <c r="G276" t="n">
+        <v>14.41333333333333</v>
+      </c>
+      <c r="H276" t="n">
+        <v>14.70833333333334</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="L276" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C277" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D277" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E277" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F277" t="n">
+        <v>111</v>
+      </c>
+      <c r="G277" t="n">
+        <v>14.41333333333333</v>
+      </c>
+      <c r="H277" t="n">
+        <v>14.69833333333334</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="L277" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C278" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D278" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E278" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F278" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G278" t="n">
+        <v>14.42666666666667</v>
+      </c>
+      <c r="H278" t="n">
+        <v>14.68833333333334</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="L278" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="M278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C279" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D279" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E279" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F279" t="n">
+        <v>23495.2031</v>
+      </c>
+      <c r="G279" t="n">
+        <v>14.43333333333333</v>
+      </c>
+      <c r="H279" t="n">
+        <v>14.68000000000001</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-26 BackTest MITH.xlsx
+++ b/BackTest/2019-10-26 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N337"/>
+  <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>155838.1941</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>155838.1941</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J3" t="n">
         <v>14.6</v>
       </c>
-      <c r="K3" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>155838.1941</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J4" t="n">
         <v>14.6</v>
       </c>
-      <c r="K4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>179538.1941</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J5" t="n">
         <v>14.6</v>
       </c>
-      <c r="K5" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>179538.1941</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="J6" t="n">
         <v>14.8</v>
       </c>
-      <c r="K6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>179538.1941</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="J7" t="n">
         <v>14.8</v>
       </c>
-      <c r="K7" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>353018.1941</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="J8" t="n">
         <v>14.8</v>
       </c>
-      <c r="K8" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -750,22 +724,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -792,22 +763,19 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -834,22 +802,19 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -874,26 +839,23 @@
         <v>534499.3901</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="J12" t="n">
         <v>14.8</v>
       </c>
-      <c r="K12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -918,24 +880,23 @@
         <v>636499.3901</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L13" t="inlineStr">
+        <v>14.9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,22 +923,19 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,24 +960,23 @@
         <v>626706.0701</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>14.9</v>
+      </c>
+      <c r="J15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,24 +1001,23 @@
         <v>626706.0701</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,22 +1044,19 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,22 +1083,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1172,22 +1122,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1214,22 +1161,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1256,22 +1200,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1298,22 +1239,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1340,22 +1278,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1380,26 +1315,21 @@
         <v>247038.0701</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1426,22 +1356,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1466,26 +1393,21 @@
         <v>152638.0701</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1510,26 +1432,21 @@
         <v>152638.0701</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1554,26 +1471,21 @@
         <v>152638.0701</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1598,26 +1510,21 @@
         <v>152638.0701</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1642,26 +1549,21 @@
         <v>152638.0701</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1686,26 +1588,21 @@
         <v>152638.0701</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1732,24 +1629,19 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1774,26 +1666,21 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1818,26 +1705,21 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1862,26 +1744,21 @@
         <v>17055.59760000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L35" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1906,24 +1783,21 @@
         <v>17055.59760000001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L36" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1950,22 +1824,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1992,22 +1863,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2034,22 +1902,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2076,22 +1941,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2118,22 +1980,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2160,22 +2019,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2202,22 +2058,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2244,22 +2097,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2286,22 +2136,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2328,22 +2175,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2370,22 +2214,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2412,22 +2253,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2454,22 +2292,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2494,26 +2329,23 @@
         <v>-111513.9149</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="J50" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K50" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L50" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2538,26 +2370,23 @@
         <v>-111513.9149</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="J51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K51" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L51" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2582,26 +2411,23 @@
         <v>-111513.9149</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="J52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K52" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L52" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2626,26 +2452,23 @@
         <v>-111513.9149</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="J53" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K53" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L53" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2670,26 +2493,23 @@
         <v>-111467.9149</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="J54" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="K54" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L54" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2714,26 +2534,21 @@
         <v>-110742.0646</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K55" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L55" t="inlineStr">
+        <v>14.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2760,22 +2575,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2802,22 +2614,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2844,22 +2653,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2886,22 +2692,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2928,22 +2731,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2970,22 +2770,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3012,22 +2809,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3054,22 +2848,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3096,22 +2887,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3138,22 +2926,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3180,22 +2965,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3222,22 +3004,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3264,22 +3043,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3306,22 +3082,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3348,22 +3121,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3390,22 +3160,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3432,22 +3199,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3474,22 +3238,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3516,22 +3277,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3558,22 +3316,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3600,22 +3355,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3642,22 +3394,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3682,24 +3431,23 @@
         <v>-61983.49459999996</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L78" t="inlineStr">
+        <v>14.6</v>
+      </c>
+      <c r="J78" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3724,24 +3472,23 @@
         <v>-61970.67009999996</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L79" t="inlineStr">
+        <v>14.6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3766,24 +3513,23 @@
         <v>-160370.6701</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L80" t="inlineStr">
+        <v>14.7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3808,24 +3554,23 @@
         <v>-160370.6701</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L81" t="inlineStr">
+        <v>14.6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3850,24 +3595,23 @@
         <v>-160370.6701</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L82" t="inlineStr">
+        <v>14.6</v>
+      </c>
+      <c r="J82" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3894,22 +3638,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3936,22 +3677,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3978,22 +3716,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4020,22 +3755,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4062,22 +3794,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4104,22 +3833,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4146,22 +3872,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4188,22 +3911,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L90" t="inlineStr">
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4230,22 +3950,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L91" t="inlineStr">
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4272,22 +3989,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L92" t="inlineStr">
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4314,22 +4028,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4356,22 +4067,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4398,22 +4106,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4440,22 +4145,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4482,22 +4184,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4524,22 +4223,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4566,22 +4262,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4608,22 +4301,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4650,22 +4340,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4692,22 +4379,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4734,22 +4418,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4776,22 +4457,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4818,22 +4496,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4860,22 +4535,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4902,22 +4574,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L107" t="inlineStr">
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4944,22 +4613,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4986,22 +4652,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5028,22 +4691,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5070,22 +4730,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5110,24 +4767,21 @@
         <v>293265.0402000001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L112" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1.028783783783784</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5152,24 +4806,15 @@
         <v>343879.0402000001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5194,24 +4839,15 @@
         <v>337892.0402000001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5236,24 +4872,15 @@
         <v>337892.0402000001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5278,24 +4905,15 @@
         <v>333525.2975000001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5320,24 +4938,15 @@
         <v>333525.2975000001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5364,22 +4973,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5406,22 +5006,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5448,22 +5039,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5490,22 +5072,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5532,22 +5105,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5574,22 +5138,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5616,22 +5171,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5658,22 +5204,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5700,22 +5237,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5742,22 +5270,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5784,22 +5303,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5826,22 +5336,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5868,22 +5369,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5910,22 +5402,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5952,22 +5435,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5994,22 +5468,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6036,22 +5501,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6078,22 +5534,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6120,22 +5567,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6162,22 +5600,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6204,22 +5633,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6246,22 +5666,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6288,22 +5699,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6330,22 +5732,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6372,22 +5765,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6414,22 +5798,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6456,22 +5831,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6498,22 +5864,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6540,22 +5897,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6582,22 +5930,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6624,22 +5963,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6666,22 +5996,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6708,22 +6029,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6750,22 +6062,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6792,22 +6095,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6834,22 +6128,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6876,22 +6161,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6918,22 +6194,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6960,22 +6227,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7002,22 +6260,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7044,22 +6293,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7086,22 +6326,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7128,22 +6359,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7170,22 +6392,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7212,22 +6425,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7254,22 +6458,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7296,22 +6491,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7338,22 +6524,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7380,22 +6557,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7422,22 +6590,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7464,22 +6623,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7506,22 +6656,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7548,22 +6689,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7590,22 +6722,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7632,22 +6755,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7674,22 +6788,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7716,22 +6821,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7758,22 +6854,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7800,22 +6887,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7842,22 +6920,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7884,22 +6953,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7926,22 +6986,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7968,22 +7019,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -8010,22 +7052,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8052,22 +7085,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8094,22 +7118,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8136,22 +7151,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8178,22 +7184,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8220,22 +7217,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8262,22 +7250,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8304,22 +7283,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8346,22 +7316,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8388,22 +7349,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8430,22 +7382,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8472,22 +7415,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8514,22 +7448,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8556,22 +7481,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8598,22 +7514,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8640,22 +7547,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8682,22 +7580,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8724,22 +7613,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8766,22 +7646,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8808,22 +7679,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8850,22 +7712,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8892,22 +7745,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8934,22 +7778,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8976,22 +7811,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -9018,22 +7844,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9060,22 +7877,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9102,22 +7910,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9144,22 +7943,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9186,22 +7976,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9228,22 +8009,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9270,22 +8042,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -9312,22 +8075,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -9354,22 +8108,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -9396,22 +8141,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -9438,22 +8174,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -9480,22 +8207,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -9522,22 +8240,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -9564,22 +8273,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -9606,22 +8306,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -9648,22 +8339,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -9690,22 +8372,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9732,22 +8405,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9774,22 +8438,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9816,22 +8471,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9858,22 +8504,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9900,22 +8537,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9942,22 +8570,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9984,22 +8603,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -10026,22 +8636,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10068,22 +8669,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10110,22 +8702,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10152,22 +8735,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10194,22 +8768,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10236,22 +8801,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -10278,22 +8834,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -10320,22 +8867,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -10362,22 +8900,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -10404,22 +8933,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -10446,22 +8966,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -10488,22 +8999,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -10530,22 +9032,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -10572,22 +9065,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -10614,22 +9098,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -10656,22 +9131,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -10698,22 +9164,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -10740,22 +9197,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -10782,22 +9230,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10824,22 +9263,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -10866,22 +9296,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -10906,24 +9327,15 @@
         <v>8706969.850774195</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -10948,24 +9360,15 @@
         <v>8706969.850774195</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -10990,24 +9393,15 @@
         <v>8706979.850774195</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -11032,24 +9426,15 @@
         <v>8706979.850774195</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -11074,24 +9459,15 @@
         <v>8706979.850774195</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -11118,22 +9494,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -11160,22 +9527,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -11202,22 +9560,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -11242,24 +9591,15 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -11284,24 +9624,15 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -11328,22 +9659,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -11370,22 +9692,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -11410,24 +9723,15 @@
         <v>8139111.119574196</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M262" t="n">
-        <v>1.022027027027027</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -11452,18 +9756,15 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -11488,18 +9789,15 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -11524,18 +9822,15 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -11560,18 +9855,15 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -11596,18 +9888,15 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -11634,16 +9923,13 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -11670,16 +9956,13 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -11706,16 +9989,13 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>1</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -11742,16 +10022,13 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>1</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -11778,16 +10055,13 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>1</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -11814,16 +10088,13 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -11850,16 +10121,13 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>1</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -11884,18 +10152,15 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -11922,16 +10187,13 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -11958,16 +10220,13 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -11994,16 +10253,13 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -12030,16 +10286,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -12066,16 +10319,13 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -12102,16 +10352,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -12138,16 +10385,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>1</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -12174,16 +10418,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>1</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -12210,16 +10451,13 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>1</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -12246,16 +10484,13 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>1</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -12282,16 +10517,13 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>1</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -12318,16 +10550,13 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -12354,16 +10583,13 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -12388,18 +10614,15 @@
         <v>8098585.281374197</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -12426,16 +10649,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -12462,16 +10682,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -12498,16 +10715,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -12534,16 +10748,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>1</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -12570,16 +10781,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -12606,16 +10814,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -12642,16 +10847,13 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -12676,18 +10878,15 @@
         <v>7975220.803874196</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -12712,18 +10911,15 @@
         <v>7975220.803874196</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -12748,18 +10944,15 @@
         <v>7975345.803874196</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -12784,18 +10977,15 @@
         <v>7975345.803874196</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -12820,18 +11010,15 @@
         <v>7954678.719574196</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -12856,18 +11043,15 @@
         <v>7954703.719574196</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -12892,18 +11076,15 @@
         <v>7954703.719574196</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -12928,18 +11109,15 @@
         <v>7919290.076774197</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -12964,18 +11142,15 @@
         <v>7919290.076774197</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -13000,18 +11175,15 @@
         <v>7941502.912874197</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -13038,16 +11210,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>0</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -13072,18 +11241,15 @@
         <v>7879266.835774196</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -13108,18 +11274,15 @@
         <v>7879350.650774197</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -13144,18 +11307,15 @@
         <v>7879329.650774197</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -13182,16 +11342,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>0</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -13216,18 +11373,15 @@
         <v>7774770.164874197</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -13252,18 +11406,15 @@
         <v>7774770.164874197</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -13290,16 +11441,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -13326,16 +11474,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -13362,16 +11507,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -13396,18 +11538,15 @@
         <v>7866192.591374197</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -13434,16 +11573,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -13470,16 +11606,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -13506,16 +11639,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -13542,16 +11672,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -13578,16 +11705,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -13614,16 +11738,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -13650,16 +11771,13 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -13686,16 +11804,13 @@
       <c r="H325" t="n">
         <v>0</v>
       </c>
-      <c r="I325" t="n">
-        <v>0</v>
-      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -13722,16 +11837,13 @@
       <c r="H326" t="n">
         <v>0</v>
       </c>
-      <c r="I326" t="n">
-        <v>0</v>
-      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -13758,16 +11870,13 @@
       <c r="H327" t="n">
         <v>0</v>
       </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-      <c r="N327" t="inlineStr"/>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -13794,16 +11903,13 @@
       <c r="H328" t="n">
         <v>0</v>
       </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-      <c r="N328" t="inlineStr"/>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -13830,16 +11936,13 @@
       <c r="H329" t="n">
         <v>0</v>
       </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
-      <c r="M329" t="n">
-        <v>1</v>
-      </c>
-      <c r="N329" t="inlineStr"/>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13866,16 +11969,13 @@
       <c r="H330" t="n">
         <v>0</v>
       </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
-      <c r="M330" t="n">
-        <v>1</v>
-      </c>
-      <c r="N330" t="inlineStr"/>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -13902,16 +12002,13 @@
       <c r="H331" t="n">
         <v>0</v>
       </c>
-      <c r="I331" t="n">
-        <v>0</v>
-      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
-      <c r="M331" t="n">
-        <v>1</v>
-      </c>
-      <c r="N331" t="inlineStr"/>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -13938,16 +12035,13 @@
       <c r="H332" t="n">
         <v>0</v>
       </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
-      <c r="M332" t="n">
-        <v>1</v>
-      </c>
-      <c r="N332" t="inlineStr"/>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -13974,16 +12068,13 @@
       <c r="H333" t="n">
         <v>0</v>
       </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
-      <c r="M333" t="n">
-        <v>1</v>
-      </c>
-      <c r="N333" t="inlineStr"/>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -14010,16 +12101,13 @@
       <c r="H334" t="n">
         <v>0</v>
       </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
-      <c r="M334" t="n">
-        <v>1</v>
-      </c>
-      <c r="N334" t="inlineStr"/>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -14046,16 +12134,13 @@
       <c r="H335" t="n">
         <v>0</v>
       </c>
-      <c r="I335" t="n">
-        <v>0</v>
-      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="n">
-        <v>1</v>
-      </c>
-      <c r="N335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -14082,16 +12167,13 @@
       <c r="H336" t="n">
         <v>0</v>
       </c>
-      <c r="I336" t="n">
-        <v>0</v>
-      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
-      <c r="M336" t="n">
-        <v>1</v>
-      </c>
-      <c r="N336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -14118,18 +12200,15 @@
       <c r="H337" t="n">
         <v>0</v>
       </c>
-      <c r="I337" t="n">
-        <v>0</v>
-      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
-      <c r="M337" t="n">
-        <v>1</v>
-      </c>
-      <c r="N337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest MITH.xlsx
+++ b/BackTest/2019-10-26 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>155838.1941</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>155838.1941</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,7 +517,7 @@
         <v>155838.1941</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>14.6</v>
@@ -529,11 +525,7 @@
       <c r="J4" t="n">
         <v>14.6</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,7 +554,7 @@
         <v>179538.1941</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>14.6</v>
@@ -603,15 +595,19 @@
         <v>179538.1941</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>14.8</v>
       </c>
       <c r="J6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>14.6</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,19 +636,11 @@
         <v>179538.1941</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +669,11 @@
         <v>353018.1941</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -725,14 +705,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -764,14 +738,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -803,14 +771,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -839,7 +801,7 @@
         <v>534499.3901</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>14.8</v>
@@ -847,11 +809,7 @@
       <c r="J12" t="n">
         <v>14.8</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -880,7 +838,7 @@
         <v>636499.3901</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>14.9</v>
@@ -890,7 +848,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -921,15 +879,17 @@
         <v>614729.3901</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15</v>
+      </c>
       <c r="J14" t="n">
         <v>14.8</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -960,7 +920,7 @@
         <v>626706.0701</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>14.9</v>
@@ -970,7 +930,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L15" t="n">
@@ -1001,7 +961,7 @@
         <v>626706.0701</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>15</v>
@@ -1237,9 +1197,11 @@
         <v>405476.0701</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J22" t="n">
         <v>14.8</v>
       </c>
@@ -1276,9 +1238,11 @@
         <v>241176.0701</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J23" t="n">
         <v>14.8</v>
       </c>
@@ -1315,9 +1279,11 @@
         <v>247038.0701</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J24" t="n">
         <v>14.8</v>
       </c>
@@ -1354,9 +1320,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J25" t="n">
         <v>14.8</v>
       </c>
@@ -1393,9 +1361,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J26" t="n">
         <v>14.8</v>
       </c>
@@ -1432,9 +1402,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J27" t="n">
         <v>14.8</v>
       </c>
@@ -1471,9 +1443,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J28" t="n">
         <v>14.8</v>
       </c>
@@ -1510,9 +1484,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J29" t="n">
         <v>14.8</v>
       </c>
@@ -1549,9 +1525,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J30" t="n">
         <v>14.8</v>
       </c>
@@ -1588,9 +1566,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J31" t="n">
         <v>14.8</v>
       </c>
@@ -1629,7 +1609,9 @@
       <c r="H32" t="n">
         <v>1</v>
       </c>
-      <c r="I32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J32" t="n">
         <v>14.8</v>
       </c>
@@ -1666,9 +1648,11 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14.4</v>
+      </c>
       <c r="J33" t="n">
         <v>14.8</v>
       </c>
@@ -1705,9 +1689,11 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J34" t="n">
         <v>14.8</v>
       </c>
@@ -1744,9 +1730,11 @@
         <v>17055.59760000001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J35" t="n">
         <v>14.8</v>
       </c>
@@ -1785,7 +1773,9 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J36" t="n">
         <v>14.8</v>
       </c>
@@ -1822,9 +1812,11 @@
         <v>42556.78800000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J37" t="n">
         <v>14.8</v>
       </c>
@@ -1900,9 +1892,11 @@
         <v>48808.16220000001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J39" t="n">
         <v>14.8</v>
       </c>
@@ -1939,9 +1933,11 @@
         <v>35644.52090000002</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J40" t="n">
         <v>14.8</v>
       </c>
@@ -1978,9 +1974,11 @@
         <v>35656.52090000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J41" t="n">
         <v>14.8</v>
       </c>
@@ -2329,7 +2327,7 @@
         <v>-111513.9149</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>14.5</v>
@@ -2370,7 +2368,7 @@
         <v>-111513.9149</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>14.5</v>
@@ -2411,7 +2409,7 @@
         <v>-111513.9149</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>14.5</v>
@@ -2452,7 +2450,7 @@
         <v>-111513.9149</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>14.5</v>
@@ -2493,7 +2491,7 @@
         <v>-111467.9149</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>14.5</v>
@@ -2534,9 +2532,11 @@
         <v>-110742.0646</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J55" t="n">
         <v>14.8</v>
       </c>
@@ -3392,9 +3392,11 @@
         <v>-61983.49459999996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J77" t="n">
         <v>14.8</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>-61983.49459999996</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>14.6</v>
@@ -3472,7 +3474,7 @@
         <v>-61970.67009999996</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>14.6</v>
@@ -3513,7 +3515,7 @@
         <v>-160370.6701</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>14.7</v>
@@ -3554,7 +3556,7 @@
         <v>-160370.6701</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>14.6</v>
@@ -3595,7 +3597,7 @@
         <v>-160370.6701</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>14.6</v>
@@ -3636,9 +3638,11 @@
         <v>-289276.1320999999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>14.6</v>
+      </c>
       <c r="J83" t="n">
         <v>14.8</v>
       </c>
@@ -3675,9 +3679,11 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>14.5</v>
+      </c>
       <c r="J84" t="n">
         <v>14.8</v>
       </c>
@@ -3714,9 +3720,11 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>14.7</v>
+      </c>
       <c r="J85" t="n">
         <v>14.8</v>
       </c>
@@ -4767,7 +4775,7 @@
         <v>293265.0402000001</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
@@ -4775,11 +4783,11 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.028783783783784</v>
+        <v>1</v>
       </c>
       <c r="M112" t="inlineStr"/>
     </row>
@@ -4806,11 +4814,17 @@
         <v>343879.0402000001</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4839,11 +4853,17 @@
         <v>337892.0402000001</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4872,11 +4892,17 @@
         <v>337892.0402000001</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4905,11 +4931,17 @@
         <v>333525.2975000001</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4938,11 +4970,17 @@
         <v>333525.2975000001</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4974,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5007,8 +5051,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5040,8 +5090,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5073,8 +5129,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5106,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5139,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5172,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5205,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5238,8 +5324,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5271,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5304,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5337,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5370,8 +5480,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5403,8 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5436,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5469,8 +5597,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5502,8 +5636,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5535,8 +5675,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5568,8 +5714,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5601,8 +5753,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5634,8 +5792,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5667,8 +5831,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5700,8 +5870,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5733,8 +5909,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5766,8 +5948,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5799,8 +5987,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5832,8 +6026,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5865,8 +6065,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5898,8 +6104,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5931,8 +6143,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5964,8 +6182,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5997,8 +6221,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6030,8 +6260,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6063,8 +6299,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6096,8 +6338,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6129,8 +6377,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6162,8 +6416,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6195,8 +6455,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6228,8 +6494,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6261,8 +6533,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6294,8 +6572,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6327,8 +6611,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6360,8 +6650,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6393,8 +6689,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6426,8 +6728,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6459,8 +6767,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6492,8 +6806,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6525,8 +6845,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6558,8 +6884,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6591,8 +6923,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6624,8 +6962,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6657,8 +7001,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6690,8 +7040,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6723,8 +7079,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6756,8 +7118,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6789,8 +7157,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6822,8 +7196,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6855,8 +7235,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6888,8 +7274,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6921,8 +7313,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6954,8 +7352,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6987,8 +7391,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7020,8 +7430,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7053,8 +7469,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7086,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7119,8 +7547,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7152,8 +7586,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7185,8 +7625,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7218,8 +7664,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7251,8 +7703,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7284,8 +7742,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7317,8 +7781,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7350,8 +7820,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7383,8 +7859,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7416,8 +7898,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7449,8 +7937,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7482,8 +7976,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7515,8 +8015,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7548,8 +8054,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7581,8 +8093,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7614,8 +8132,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7647,8 +8171,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7680,8 +8210,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7713,8 +8249,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7746,8 +8288,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7779,8 +8327,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7812,8 +8366,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7845,8 +8405,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7878,8 +8444,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7911,8 +8483,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7944,8 +8522,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7977,8 +8561,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8010,8 +8600,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8043,8 +8639,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8076,8 +8678,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8109,8 +8717,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8142,8 +8756,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8175,8 +8795,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8208,8 +8834,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8241,8 +8873,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8274,8 +8912,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8307,8 +8951,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8340,8 +8990,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8373,8 +9029,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8406,8 +9068,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8439,8 +9107,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8472,8 +9146,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8505,8 +9185,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8538,8 +9224,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8571,8 +9263,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8604,8 +9302,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8637,8 +9341,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8670,8 +9380,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8703,8 +9419,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8736,8 +9458,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8769,8 +9497,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8802,8 +9536,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8835,8 +9575,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8868,8 +9614,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8901,8 +9653,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8934,8 +9692,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8967,8 +9731,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9000,8 +9770,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9033,8 +9809,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9066,8 +9848,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9099,8 +9887,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9132,8 +9926,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9165,8 +9965,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9198,8 +10004,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9231,8 +10043,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9264,8 +10082,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9297,8 +10121,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9327,11 +10157,17 @@
         <v>8706969.850774195</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9360,13 +10196,19 @@
         <v>8706969.850774195</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L251" t="n">
-        <v>1</v>
+        <v>1.01527027027027</v>
       </c>
       <c r="M251" t="inlineStr"/>
     </row>
@@ -9393,7 +10235,7 @@
         <v>8706979.850774195</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9426,7 +10268,7 @@
         <v>8706979.850774195</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9459,7 +10301,7 @@
         <v>8706979.850774195</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9558,7 +10400,7 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9591,7 +10433,7 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9624,7 +10466,7 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9657,7 +10499,7 @@
         <v>8176992.675174195</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9690,7 +10532,7 @@
         <v>8139092.675174195</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9723,7 +10565,7 @@
         <v>8139111.119574196</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9756,7 +10598,7 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9789,7 +10631,7 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9822,7 +10664,7 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9855,7 +10697,7 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9888,7 +10730,7 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9987,7 +10829,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10020,7 +10862,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10053,7 +10895,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10086,7 +10928,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10119,7 +10961,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10152,7 +10994,7 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10185,7 +11027,7 @@
         <v>8128407.877474196</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10218,7 +11060,7 @@
         <v>8128397.877474196</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10251,7 +11093,7 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10284,7 +11126,7 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10317,7 +11159,7 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10383,7 +11225,7 @@
         <v>8126473.260174196</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10416,7 +11258,7 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10449,7 +11291,7 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10482,7 +11324,7 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10515,7 +11357,7 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10548,7 +11390,7 @@
         <v>8076585.281374197</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10581,7 +11423,7 @@
         <v>8116485.281374197</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10614,7 +11456,7 @@
         <v>8098585.281374197</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10647,7 +11489,7 @@
         <v>8098585.281374197</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10680,7 +11522,7 @@
         <v>8098585.281374197</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10713,7 +11555,7 @@
         <v>8099515.147974197</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10746,7 +11588,7 @@
         <v>8079515.147974197</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10779,7 +11621,7 @@
         <v>8079515.147974197</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10812,7 +11654,7 @@
         <v>8079515.147974197</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10845,7 +11687,7 @@
         <v>7975220.803874196</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10878,7 +11720,7 @@
         <v>7975220.803874196</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10911,7 +11753,7 @@
         <v>7975220.803874196</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10944,7 +11786,7 @@
         <v>7975345.803874196</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10977,7 +11819,7 @@
         <v>7975345.803874196</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11010,7 +11852,7 @@
         <v>7954678.719574196</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11043,7 +11885,7 @@
         <v>7954703.719574196</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11076,7 +11918,7 @@
         <v>7954703.719574196</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11109,7 +11951,7 @@
         <v>7919290.076774197</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11142,7 +11984,7 @@
         <v>7919290.076774197</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11175,7 +12017,7 @@
         <v>7941502.912874197</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11208,7 +12050,7 @@
         <v>7941502.912874197</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11241,7 +12083,7 @@
         <v>7879266.835774196</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11274,7 +12116,7 @@
         <v>7879350.650774197</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11307,7 +12149,7 @@
         <v>7879329.650774197</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11340,7 +12182,7 @@
         <v>7879340.650774197</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11373,7 +12215,7 @@
         <v>7774770.164874197</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11406,7 +12248,7 @@
         <v>7774770.164874197</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11439,7 +12281,7 @@
         <v>7774770.164874197</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11505,7 +12347,7 @@
         <v>7774770.164874197</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11538,7 +12380,7 @@
         <v>7866192.591374197</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12209,6 +13051,6 @@
       <c r="M337" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest MITH.xlsx
+++ b/BackTest/2019-10-26 BackTest MITH.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,14 +517,10 @@
         <v>155838.1941</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>179538.1941</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -595,19 +583,11 @@
         <v>179538.1941</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -636,7 +616,7 @@
         <v>179538.1941</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -669,7 +649,7 @@
         <v>353018.1941</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -702,7 +682,7 @@
         <v>353018.1941</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -735,7 +715,7 @@
         <v>411708.1941</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -801,14 +781,10 @@
         <v>534499.3901</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>14.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -838,19 +814,11 @@
         <v>636499.3901</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -879,19 +847,11 @@
         <v>614729.3901</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15</v>
-      </c>
-      <c r="J14" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -920,19 +880,11 @@
         <v>626706.0701</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>14.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -961,19 +913,11 @@
         <v>626706.0701</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1002,17 +946,11 @@
         <v>620606.0701</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1041,17 +979,11 @@
         <v>620606.0701</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1080,17 +1012,11 @@
         <v>454176.0701</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,17 +1045,11 @@
         <v>405476.0701</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1158,17 +1078,11 @@
         <v>405476.0701</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1197,19 +1111,11 @@
         <v>405476.0701</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1238,19 +1144,11 @@
         <v>241176.0701</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J23" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1279,19 +1177,11 @@
         <v>247038.0701</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J24" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1320,19 +1210,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1361,19 +1243,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1402,19 +1276,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1443,19 +1309,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J28" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1484,19 +1342,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J29" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1525,19 +1375,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1566,19 +1408,11 @@
         <v>152638.0701</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J31" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1607,19 +1441,11 @@
         <v>8444.070100000012</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1648,19 +1474,11 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1689,19 +1507,11 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1730,19 +1540,11 @@
         <v>17055.59760000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,19 +1573,11 @@
         <v>17055.59760000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1812,19 +1606,11 @@
         <v>42556.78800000002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1853,17 +1639,11 @@
         <v>42546.78800000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1892,19 +1672,11 @@
         <v>48808.16220000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J39" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1933,19 +1705,11 @@
         <v>35644.52090000002</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1974,19 +1738,11 @@
         <v>35656.52090000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2018,14 +1774,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2057,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2096,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2135,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2174,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2213,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2252,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2291,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2327,19 +2035,11 @@
         <v>-111513.9149</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J50" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2368,19 +2068,11 @@
         <v>-111513.9149</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2409,19 +2101,11 @@
         <v>-111513.9149</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2450,19 +2134,11 @@
         <v>-111513.9149</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2491,19 +2167,11 @@
         <v>-111467.9149</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2532,19 +2200,11 @@
         <v>-110742.0646</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J55" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2576,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2615,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2654,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2693,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2732,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2771,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2810,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2849,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2888,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2927,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2966,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3005,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3044,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3083,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3122,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3161,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3200,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3239,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3278,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3317,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3356,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3392,19 +2926,11 @@
         <v>-61983.49459999996</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3433,19 +2959,11 @@
         <v>-61983.49459999996</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3474,19 +2992,11 @@
         <v>-61970.67009999996</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3515,19 +3025,11 @@
         <v>-160370.6701</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3556,19 +3058,11 @@
         <v>-160370.6701</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3597,19 +3091,11 @@
         <v>-160370.6701</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J82" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3638,19 +3124,11 @@
         <v>-289276.1320999999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J83" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3679,19 +3157,11 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3720,19 +3190,11 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="J85" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3761,17 +3223,11 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3800,17 +3256,11 @@
         <v>-230193.7092999999</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3839,17 +3289,11 @@
         <v>-230193.7092999999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3878,17 +3322,11 @@
         <v>-236992.8968999999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3920,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3956,17 +3388,11 @@
         <v>-183596.3216999999</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3995,17 +3421,11 @@
         <v>-183596.3216999999</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4037,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4076,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4115,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4154,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4193,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4232,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4271,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4310,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4349,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4388,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4427,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4466,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4505,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4544,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4583,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4622,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4661,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4700,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4739,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4778,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4817,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4856,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4895,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4934,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4973,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5012,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5051,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5090,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5129,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5168,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5207,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5246,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5285,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5324,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5363,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5402,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5441,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5480,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5519,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5558,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5597,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5636,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5675,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5714,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5753,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5792,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5831,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5870,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5909,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5948,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5987,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6026,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6065,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6104,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6143,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6182,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6221,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6260,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6299,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6338,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6377,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6416,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6455,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6494,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6533,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6572,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6611,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6650,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6689,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6728,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6764,17 +5764,15 @@
         <v>432849.1064116129</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>15</v>
+      </c>
       <c r="J163" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6807,11 +5805,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -6846,11 +5844,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -6884,14 +5882,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6923,14 +5915,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6962,14 +5948,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7001,14 +5981,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7040,14 +6014,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7079,14 +6047,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7118,14 +6080,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7157,14 +6113,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7196,14 +6146,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7235,14 +6179,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7274,14 +6212,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7313,14 +6245,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7352,14 +6278,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7391,14 +6311,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7430,14 +6344,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7469,14 +6377,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7508,14 +6410,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7547,14 +6443,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7586,14 +6476,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7625,14 +6509,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7664,14 +6542,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7703,14 +6575,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7742,14 +6608,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7781,14 +6641,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7820,14 +6674,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7859,14 +6707,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7898,14 +6740,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7937,14 +6773,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7976,14 +6806,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8015,14 +6839,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8054,14 +6872,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8093,14 +6905,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8132,14 +6938,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8171,14 +6971,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8210,14 +7004,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8249,14 +7037,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8288,14 +7070,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8327,14 +7103,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8366,14 +7136,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8405,14 +7169,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8444,14 +7202,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8483,14 +7235,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8522,14 +7268,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8561,14 +7301,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8600,14 +7334,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8639,14 +7367,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8678,14 +7400,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8717,14 +7433,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8756,14 +7466,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8795,14 +7499,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8834,14 +7532,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8873,14 +7565,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8912,14 +7598,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8951,14 +7631,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8990,14 +7664,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9029,14 +7697,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9068,14 +7730,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9104,17 +7760,15 @@
         <v>460359.0908741935</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>15</v>
+      </c>
       <c r="J223" t="n">
-        <v>14.8</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9143,15 +7797,17 @@
         <v>312774.1983741935</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>15.1</v>
+      </c>
       <c r="J224" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -9186,7 +7842,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9221,11 +7877,13 @@
         <v>312774.1983741935</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>15</v>
+      </c>
       <c r="J226" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9264,7 +7922,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9303,7 +7961,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9342,7 +8000,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9381,7 +8039,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9420,7 +8078,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9459,7 +8117,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9498,7 +8156,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9537,7 +8195,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9576,7 +8234,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9615,7 +8273,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9654,7 +8312,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9693,7 +8351,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9732,7 +8390,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9771,7 +8429,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9810,7 +8468,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9849,7 +8507,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9888,7 +8546,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9927,7 +8585,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9966,7 +8624,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10005,7 +8663,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10044,7 +8702,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10083,7 +8741,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10122,7 +8780,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10161,7 +8819,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10196,19 +8854,19 @@
         <v>8706969.850774195</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L251" t="n">
-        <v>1.01527027027027</v>
+        <v>1</v>
       </c>
       <c r="M251" t="inlineStr"/>
     </row>
@@ -10238,8 +8896,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>15</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10271,8 +8935,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>15</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10304,8 +8974,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>15</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10337,8 +9013,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>15</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10370,8 +9052,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>15</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10400,11 +9088,17 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>15</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10433,11 +9127,17 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>15</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10466,11 +9166,17 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>15</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10499,11 +9205,17 @@
         <v>8176992.675174195</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>15</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10532,11 +9244,17 @@
         <v>8139092.675174195</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>15</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10565,11 +9283,17 @@
         <v>8139111.119574196</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>15</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10598,11 +9322,17 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>15</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10631,11 +9361,17 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>15</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10664,11 +9400,17 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>15</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10697,11 +9439,17 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>15</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10733,8 +9481,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>15</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10766,8 +9520,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>15</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10799,8 +9559,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>15</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10829,11 +9595,17 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>15</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10862,11 +9634,17 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>15</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10895,11 +9673,17 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>15</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10928,11 +9712,17 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>15</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10961,11 +9751,17 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>15</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10994,11 +9790,17 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>15</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11027,11 +9829,17 @@
         <v>8128407.877474196</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>15</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11060,11 +9868,17 @@
         <v>8128397.877474196</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>15</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11093,11 +9907,17 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>15</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11126,11 +9946,17 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>15</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11159,11 +9985,17 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>15</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11195,8 +10027,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>15</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11225,11 +10063,17 @@
         <v>8126473.260174196</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>15</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11258,11 +10102,17 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>15</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11291,11 +10141,17 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>15</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11324,11 +10180,17 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>15</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11357,11 +10219,17 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>15</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11390,11 +10258,17 @@
         <v>8076585.281374197</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>15</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11423,11 +10297,17 @@
         <v>8116485.281374197</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>15</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11456,11 +10336,17 @@
         <v>8098585.281374197</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>15</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11489,11 +10375,17 @@
         <v>8098585.281374197</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>15</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11522,11 +10414,17 @@
         <v>8098585.281374197</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>15</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11555,11 +10453,17 @@
         <v>8099515.147974197</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>15</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11588,11 +10492,17 @@
         <v>8079515.147974197</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>15</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11621,11 +10531,17 @@
         <v>8079515.147974197</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>15</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11654,11 +10570,17 @@
         <v>8079515.147974197</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>15</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11687,11 +10609,17 @@
         <v>7975220.803874196</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>15</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11720,11 +10648,17 @@
         <v>7975220.803874196</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>15</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11753,11 +10687,17 @@
         <v>7975220.803874196</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>15</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11786,11 +10726,17 @@
         <v>7975345.803874196</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>15</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11819,11 +10765,17 @@
         <v>7975345.803874196</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>15</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11852,11 +10804,17 @@
         <v>7954678.719574196</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>15</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11885,11 +10843,17 @@
         <v>7954703.719574196</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>15</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11918,11 +10882,17 @@
         <v>7954703.719574196</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>15</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11951,11 +10921,17 @@
         <v>7919290.076774197</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>15</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11984,11 +10960,17 @@
         <v>7919290.076774197</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>15</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12017,11 +10999,17 @@
         <v>7941502.912874197</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>15</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12050,11 +11038,17 @@
         <v>7941502.912874197</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>15</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12083,11 +11077,17 @@
         <v>7879266.835774196</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>15</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12116,11 +11116,17 @@
         <v>7879350.650774197</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>15</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12149,11 +11155,17 @@
         <v>7879329.650774197</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>15</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12182,11 +11194,17 @@
         <v>7879340.650774197</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>15</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12215,11 +11233,17 @@
         <v>7774770.164874197</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>15</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12251,8 +11275,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>15</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12281,11 +11311,17 @@
         <v>7774770.164874197</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>15</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12317,8 +11353,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>15</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12347,11 +11389,17 @@
         <v>7774770.164874197</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>15</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12383,8 +11431,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>15</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12416,8 +11470,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>15</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12449,8 +11509,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>15</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12482,8 +11548,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>15</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12515,8 +11587,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>15</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12548,8 +11626,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>15</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12581,8 +11665,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>15</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12614,8 +11704,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>15</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12647,8 +11743,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>15</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12680,8 +11782,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>15</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12713,8 +11821,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>15</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12746,8 +11860,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>15</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12779,8 +11899,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>15</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12812,8 +11938,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>15</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12845,8 +11977,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>15</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12878,8 +12016,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>15</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12911,8 +12055,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>15</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12944,8 +12094,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>15</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12977,8 +12133,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>15</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13010,8 +12172,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>15</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13043,14 +12211,20 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>15</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
       <c r="M337" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest MITH.xlsx
+++ b/BackTest/2019-10-26 BackTest MITH.xlsx
@@ -451,7 +451,7 @@
         <v>155838.1941</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>155838.1941</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>14.6</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>155838.1941</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>179538.1941</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>179538.1941</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>14.8</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>179538.1941</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>353018.1941</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +722,17 @@
         <v>353018.1941</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +761,17 @@
         <v>411708.1941</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -751,8 +803,14 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -784,8 +842,14 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +878,17 @@
         <v>636499.3901</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -850,8 +920,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +956,17 @@
         <v>626706.0701</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +995,17 @@
         <v>626706.0701</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1034,17 @@
         <v>620606.0701</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1073,17 @@
         <v>620606.0701</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1112,17 @@
         <v>454176.0701</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1151,17 @@
         <v>405476.0701</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1190,17 @@
         <v>405476.0701</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1229,17 @@
         <v>405476.0701</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1307,17 @@
         <v>247038.0701</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1346,17 @@
         <v>152638.0701</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1385,17 @@
         <v>152638.0701</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1502,17 @@
         <v>152638.0701</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1541,17 @@
         <v>152638.0701</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1580,17 @@
         <v>152638.0701</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1619,17 @@
         <v>8444.070100000012</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1658,17 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1697,17 @@
         <v>12171.54940000001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1814,17 @@
         <v>42556.78800000002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1853,17 @@
         <v>42546.78800000002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1892,17 @@
         <v>48808.16220000001</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1934,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1973,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2012,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2051,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2090,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2129,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2168,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2207,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2246,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2285,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2324,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2363,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2402,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2441,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2480,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2519,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2558,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2597,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2636,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2675,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2714,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2753,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2792,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2831,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2909,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2948,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2987,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +3026,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +3065,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +3143,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +3182,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3221,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3260,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3299,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3338,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3377,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3416,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3455,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3686,17 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3725,17 @@
         <v>-247993.7092999999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3764,17 @@
         <v>-230193.7092999999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3803,17 @@
         <v>-230193.7092999999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3842,17 @@
         <v>-236992.8968999999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3920,17 @@
         <v>-183596.3216999999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3959,17 @@
         <v>-183596.3216999999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +4001,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +4079,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +4118,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +4157,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4196,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4235,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4274,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4313,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4352,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4391,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4625,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4664,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4703,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4742,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4781,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4820,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4859,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4898,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4937,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4976,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +5015,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +5054,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +5093,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +5132,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +5171,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5210,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5249,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5288,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5327,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5366,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5405,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5444,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5483,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5522,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5561,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5600,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5639,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5678,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5717,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5756,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5795,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5834,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5873,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5912,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5951,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5990,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +6029,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +6068,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +6107,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +6146,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +6185,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6224,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6263,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6302,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6341,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6380,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6419,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6458,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6497,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6536,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6575,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6614,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6653,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6692,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5764,15 +6728,17 @@
         <v>432849.1064116129</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>15</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5805,11 +6771,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -5844,11 +6810,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -5882,8 +6848,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5915,8 +6887,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5948,8 +6926,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5981,8 +6965,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6014,8 +7004,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6047,8 +7043,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6080,8 +7082,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6113,8 +7121,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6146,8 +7160,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6179,8 +7199,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6212,8 +7238,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6245,8 +7277,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6278,8 +7316,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6311,8 +7355,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6344,8 +7394,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6377,8 +7433,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6410,8 +7472,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6443,8 +7511,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6476,8 +7550,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6509,8 +7589,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6542,8 +7628,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6575,8 +7667,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6608,8 +7706,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6641,8 +7745,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6674,8 +7784,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6707,8 +7823,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6740,8 +7862,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6773,8 +7901,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6806,8 +7940,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6839,8 +7979,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6872,8 +8018,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6905,8 +8057,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6938,8 +8096,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6971,8 +8135,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7004,8 +8174,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7037,8 +8213,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7070,8 +8252,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7103,8 +8291,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7136,8 +8330,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7169,8 +8369,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7202,8 +8408,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7235,8 +8447,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7268,8 +8486,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7301,8 +8525,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7334,8 +8564,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7367,8 +8603,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7400,8 +8642,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7433,8 +8681,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7466,8 +8720,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7499,8 +8759,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7532,8 +8798,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7565,8 +8837,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7598,8 +8876,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7631,8 +8915,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7664,8 +8954,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7697,8 +8993,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7730,8 +9032,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7760,15 +9068,17 @@
         <v>460359.0908741935</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>15</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+        <v>14.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7797,17 +9107,15 @@
         <v>312774.1983741935</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>15.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -7842,7 +9150,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -7877,13 +9185,11 @@
         <v>312774.1983741935</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -7922,7 +9228,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -7961,7 +9267,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8000,7 +9306,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8039,7 +9345,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8078,7 +9384,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8117,7 +9423,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8156,7 +9462,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8195,7 +9501,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8234,7 +9540,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8273,7 +9579,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8312,7 +9618,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8351,7 +9657,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8390,7 +9696,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8429,7 +9735,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8468,7 +9774,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8507,7 +9813,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8546,7 +9852,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8585,7 +9891,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8624,7 +9930,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8663,7 +9969,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8702,7 +10008,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8741,7 +10047,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8780,7 +10086,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -8815,19 +10121,19 @@
         <v>8706969.850774195</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L250" t="n">
-        <v>1</v>
+        <v>1.01527027027027</v>
       </c>
       <c r="M250" t="inlineStr"/>
     </row>
@@ -8857,14 +10163,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>15</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8896,14 +10196,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>15</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8935,14 +10229,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>15</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8971,17 +10259,11 @@
         <v>8706979.850774195</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>15</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9010,17 +10292,11 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>15</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9049,17 +10325,11 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>15</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9091,14 +10361,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>15</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9127,17 +10391,11 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>15</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9166,17 +10424,11 @@
         <v>8176979.850774195</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>15</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9205,17 +10457,11 @@
         <v>8176992.675174195</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>15</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9244,17 +10490,11 @@
         <v>8139092.675174195</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>15</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9283,17 +10523,11 @@
         <v>8139111.119574196</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>15</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9322,17 +10556,11 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>15</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9361,17 +10589,11 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>15</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9400,17 +10622,11 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>15</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9439,17 +10655,11 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>15</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9478,17 +10688,11 @@
         <v>8134152.775574196</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>15</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9517,17 +10721,11 @@
         <v>8180086.341274196</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>15</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9556,17 +10754,11 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>15</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9595,17 +10787,11 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>15</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9634,17 +10820,11 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>15</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9673,17 +10853,11 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>15</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9712,17 +10886,11 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>15</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9751,17 +10919,11 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>15</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9790,17 +10952,11 @@
         <v>8109507.877474196</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>15</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9829,17 +10985,11 @@
         <v>8128407.877474196</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>15</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9868,17 +11018,11 @@
         <v>8128397.877474196</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>15</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9907,17 +11051,11 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>15</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9946,17 +11084,11 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>15</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9985,17 +11117,11 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>15</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10024,17 +11150,11 @@
         <v>8126509.145174196</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>15</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10066,14 +11186,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>15</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10105,14 +11219,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>15</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10141,17 +11249,11 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>15</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10180,17 +11282,11 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>15</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10219,17 +11315,11 @@
         <v>8126485.281374197</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>15</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10261,14 +11351,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>15</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10297,17 +11381,11 @@
         <v>8116485.281374197</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>15</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10339,14 +11417,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>15</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10378,14 +11450,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>15</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10417,14 +11483,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>15</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10456,14 +11516,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>15</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10495,14 +11549,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>15</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10534,14 +11582,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>15</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10573,14 +11615,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>15</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10612,14 +11648,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>15</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10651,14 +11681,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>15</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10690,14 +11714,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>15</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10729,14 +11747,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>15</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10768,14 +11780,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>15</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10807,14 +11813,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>15</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10846,14 +11846,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>15</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10885,14 +11879,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>15</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10924,14 +11912,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>15</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10963,14 +11945,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>15</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11002,14 +11978,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>15</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11041,14 +12011,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>15</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11080,14 +12044,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>15</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11119,14 +12077,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>15</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11158,14 +12110,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>15</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11197,14 +12143,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>15</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11236,14 +12176,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>15</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11275,14 +12209,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>15</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11314,14 +12242,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>15</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11353,14 +12275,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>15</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11392,14 +12308,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>15</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11431,14 +12341,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>15</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11470,14 +12374,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>15</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11509,14 +12407,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>15</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11548,14 +12440,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>15</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11587,14 +12473,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>15</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11626,14 +12506,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>15</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11665,14 +12539,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>15</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11704,14 +12572,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>15</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11743,14 +12605,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>15</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11782,14 +12638,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>15</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11821,14 +12671,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>15</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11860,14 +12704,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>15</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11899,14 +12737,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>15</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11938,14 +12770,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>15</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11977,14 +12803,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>15</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12016,14 +12836,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>15</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12055,14 +12869,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>15</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12094,14 +12902,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>15</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12133,14 +12935,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>15</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12172,14 +12968,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>15</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12211,14 +13001,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>15</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
